--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3780169.964197794</v>
+        <v>3777141.665026639</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8384684.614572189</v>
+        <v>8384684.614572193</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215213.1097108967</v>
+        <v>215213.1097108966</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>6.876045741711437</v>
+        <v>5.309829763041574</v>
       </c>
       <c r="T3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>5.309829763041574</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D6" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1053,34 +1053,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C7" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3.33498035419292</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>15.26809192273228</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>11.91464376220975</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12.73205987707308</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>15.30273751513505</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="K10" t="n">
-        <v>10.75721046822444</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>332.6381413703634</v>
       </c>
       <c r="C11" t="n">
-        <v>315.1771914778904</v>
+        <v>315.1771914778903</v>
       </c>
       <c r="D11" t="n">
         <v>304.5873413275658</v>
@@ -1381,7 +1381,7 @@
         <v>331.8346697791446</v>
       </c>
       <c r="F11" t="n">
-        <v>356.7803454485943</v>
+        <v>356.7803454485957</v>
       </c>
       <c r="G11" t="n">
         <v>360.9798342203848</v>
@@ -1429,7 +1429,7 @@
         <v>200.9117763745887</v>
       </c>
       <c r="V11" t="n">
-        <v>277.6565581770178</v>
+        <v>277.6565581770177</v>
       </c>
       <c r="W11" t="n">
         <v>299.1452684242959</v>
@@ -1533,22 +1533,22 @@
         <v>117.1511208055107</v>
       </c>
       <c r="D13" t="n">
-        <v>98.51977272509519</v>
+        <v>98.51977272509518</v>
       </c>
       <c r="E13" t="n">
-        <v>96.33826235345201</v>
+        <v>96.338262353452</v>
       </c>
       <c r="F13" t="n">
-        <v>95.32534772981408</v>
+        <v>95.32534772981407</v>
       </c>
       <c r="G13" t="n">
         <v>115.9991013254697</v>
       </c>
       <c r="H13" t="n">
-        <v>95.27272830891573</v>
+        <v>95.2727283089157</v>
       </c>
       <c r="I13" t="n">
-        <v>48.33153860235636</v>
+        <v>48.33153860235652</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93864470762963</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S13" t="n">
-        <v>140.8756911317236</v>
+        <v>140.875691131724</v>
       </c>
       <c r="T13" t="n">
         <v>169.7480387920752</v>
       </c>
       <c r="U13" t="n">
-        <v>236.1199011866535</v>
+        <v>236.1199011866534</v>
       </c>
       <c r="V13" t="n">
-        <v>202.0419430307109</v>
+        <v>202.0419430307108</v>
       </c>
       <c r="W13" t="n">
-        <v>236.4272980434739</v>
+        <v>236.4272980434738</v>
       </c>
       <c r="X13" t="n">
         <v>175.61395509592</v>
@@ -1609,7 +1609,7 @@
         <v>332.6381413703634</v>
       </c>
       <c r="C14" t="n">
-        <v>315.1771914778904</v>
+        <v>315.1771914778903</v>
       </c>
       <c r="D14" t="n">
         <v>304.5873413275658</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.5969808934124</v>
+        <v>62.59698089341288</v>
       </c>
       <c r="T14" t="n">
-        <v>154.4955681313651</v>
+        <v>154.4955681313664</v>
       </c>
       <c r="U14" t="n">
-        <v>200.9117763745892</v>
+        <v>200.9117763745887</v>
       </c>
       <c r="V14" t="n">
-        <v>277.6565581770178</v>
+        <v>277.6565581770177</v>
       </c>
       <c r="W14" t="n">
         <v>299.1452684242959</v>
@@ -1770,13 +1770,13 @@
         <v>117.1511208055107</v>
       </c>
       <c r="D16" t="n">
-        <v>98.51977272509519</v>
+        <v>98.51977272509518</v>
       </c>
       <c r="E16" t="n">
-        <v>96.33826235345201</v>
+        <v>96.338262353452</v>
       </c>
       <c r="F16" t="n">
-        <v>95.32534772981408</v>
+        <v>95.32534772981407</v>
       </c>
       <c r="G16" t="n">
         <v>115.9991013254697</v>
@@ -1785,7 +1785,7 @@
         <v>95.27272830891572</v>
       </c>
       <c r="I16" t="n">
-        <v>48.33153860235678</v>
+        <v>48.33153860235656</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93864470762963</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S16" t="n">
         <v>140.8756911317236</v>
@@ -1821,13 +1821,13 @@
         <v>169.7480387920752</v>
       </c>
       <c r="U16" t="n">
-        <v>236.1199011866535</v>
+        <v>236.1199011866534</v>
       </c>
       <c r="V16" t="n">
-        <v>202.0419430307109</v>
+        <v>202.0419430307108</v>
       </c>
       <c r="W16" t="n">
-        <v>236.4272980434739</v>
+        <v>236.4272980434738</v>
       </c>
       <c r="X16" t="n">
         <v>175.61395509592</v>
@@ -1846,7 +1846,7 @@
         <v>332.6381413703634</v>
       </c>
       <c r="C17" t="n">
-        <v>315.1771914778903</v>
+        <v>315.1771914778904</v>
       </c>
       <c r="D17" t="n">
         <v>304.5873413275658</v>
@@ -1861,7 +1861,7 @@
         <v>360.9798342203848</v>
       </c>
       <c r="H17" t="n">
-        <v>246.0872590821747</v>
+        <v>246.087259082176</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.59698089341288</v>
+        <v>62.5969808934129</v>
       </c>
       <c r="T17" t="n">
         <v>154.4955681313651</v>
@@ -1903,7 +1903,7 @@
         <v>200.9117763745887</v>
       </c>
       <c r="V17" t="n">
-        <v>277.6565581770177</v>
+        <v>277.6565581770178</v>
       </c>
       <c r="W17" t="n">
         <v>299.1452684242959</v>
@@ -2007,22 +2007,22 @@
         <v>117.1511208055107</v>
       </c>
       <c r="D19" t="n">
-        <v>98.51977272509518</v>
+        <v>98.51977272509521</v>
       </c>
       <c r="E19" t="n">
-        <v>96.338262353452</v>
+        <v>96.33826235345202</v>
       </c>
       <c r="F19" t="n">
-        <v>95.32534772981407</v>
+        <v>95.3253477298141</v>
       </c>
       <c r="G19" t="n">
         <v>115.9991013254697</v>
       </c>
       <c r="H19" t="n">
-        <v>95.27272830891572</v>
+        <v>95.27272830891575</v>
       </c>
       <c r="I19" t="n">
-        <v>48.33153860235656</v>
+        <v>48.3315386023563</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93864470762962</v>
+        <v>41.93864470762965</v>
       </c>
       <c r="S19" t="n">
         <v>140.8756911317236</v>
@@ -2058,13 +2058,13 @@
         <v>169.7480387920752</v>
       </c>
       <c r="U19" t="n">
-        <v>236.1199011866534</v>
+        <v>236.1199011866535</v>
       </c>
       <c r="V19" t="n">
-        <v>202.0419430307108</v>
+        <v>202.0419430307109</v>
       </c>
       <c r="W19" t="n">
-        <v>236.4272980434738</v>
+        <v>236.4272980434739</v>
       </c>
       <c r="X19" t="n">
         <v>175.61395509592</v>
@@ -2083,7 +2083,7 @@
         <v>332.6381413703634</v>
       </c>
       <c r="C20" t="n">
-        <v>315.1771914778903</v>
+        <v>315.1771914778904</v>
       </c>
       <c r="D20" t="n">
         <v>304.5873413275658</v>
@@ -2098,7 +2098,7 @@
         <v>360.9798342203848</v>
       </c>
       <c r="H20" t="n">
-        <v>246.0872590821745</v>
+        <v>246.0872590821746</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.59698089341288</v>
+        <v>62.5969808934124</v>
       </c>
       <c r="T20" t="n">
         <v>154.4955681313651</v>
       </c>
       <c r="U20" t="n">
-        <v>200.9117763745882</v>
+        <v>200.9117763745896</v>
       </c>
       <c r="V20" t="n">
-        <v>277.6565581770177</v>
+        <v>277.6565581770178</v>
       </c>
       <c r="W20" t="n">
         <v>299.1452684242959</v>
@@ -2244,22 +2244,22 @@
         <v>117.1511208055107</v>
       </c>
       <c r="D22" t="n">
-        <v>98.51977272509518</v>
+        <v>98.51977272509481</v>
       </c>
       <c r="E22" t="n">
-        <v>96.338262353452</v>
+        <v>96.33826235345201</v>
       </c>
       <c r="F22" t="n">
-        <v>95.32534772981407</v>
+        <v>95.32534772981408</v>
       </c>
       <c r="G22" t="n">
         <v>115.9991013254697</v>
       </c>
       <c r="H22" t="n">
-        <v>95.27272830891572</v>
+        <v>95.27272830891573</v>
       </c>
       <c r="I22" t="n">
-        <v>48.33153860235656</v>
+        <v>48.33153860235657</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93864470762962</v>
+        <v>41.93864470762963</v>
       </c>
       <c r="S22" t="n">
         <v>140.8756911317236</v>
@@ -2295,13 +2295,13 @@
         <v>169.7480387920752</v>
       </c>
       <c r="U22" t="n">
-        <v>236.1199011866534</v>
+        <v>236.1199011866535</v>
       </c>
       <c r="V22" t="n">
-        <v>202.0419430307108</v>
+        <v>202.0419430307109</v>
       </c>
       <c r="W22" t="n">
-        <v>236.4272980434738</v>
+        <v>236.4272980434739</v>
       </c>
       <c r="X22" t="n">
         <v>175.61395509592</v>
@@ -2490,13 +2490,13 @@
         <v>95.32534772981407</v>
       </c>
       <c r="G25" t="n">
-        <v>115.9991013254692</v>
+        <v>115.9991013254697</v>
       </c>
       <c r="H25" t="n">
         <v>95.2727283089157</v>
       </c>
       <c r="I25" t="n">
-        <v>48.33153860235689</v>
+        <v>48.33153860235678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93864470762988</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S25" t="n">
-        <v>140.8756911317236</v>
+        <v>140.875691131724</v>
       </c>
       <c r="T25" t="n">
         <v>169.7480387920752</v>
       </c>
       <c r="U25" t="n">
-        <v>236.1199011866534</v>
+        <v>236.1199011866532</v>
       </c>
       <c r="V25" t="n">
         <v>202.0419430307108</v>
@@ -2608,10 +2608,10 @@
         <v>112.6926811865301</v>
       </c>
       <c r="T26" t="n">
-        <v>204.5912684244834</v>
+        <v>204.5912684244823</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0074766677053</v>
+        <v>251.0074766677058</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.42723889547374</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>190.9713914248408</v>
       </c>
       <c r="T28" t="n">
-        <v>219.8437390851924</v>
+        <v>10.73128161618652</v>
       </c>
       <c r="U28" t="n">
-        <v>85.37774417843534</v>
+        <v>286.2156014797706</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>7.864699884399798</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.3684286020329</v>
       </c>
       <c r="I31" t="n">
-        <v>98.42723889547374</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.8437390851924</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2156014797706</v>
+        <v>111.1087977227086</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.5536879678604</v>
+        <v>380.5536879678603</v>
       </c>
       <c r="C32" t="n">
         <v>363.0927380753873</v>
@@ -3037,19 +3037,19 @@
         <v>352.5028879250627</v>
       </c>
       <c r="E32" t="n">
-        <v>379.7502163766416</v>
+        <v>379.7502163766415</v>
       </c>
       <c r="F32" t="n">
         <v>404.6958920460912</v>
       </c>
       <c r="G32" t="n">
-        <v>408.8953808178817</v>
+        <v>408.8953808178816</v>
       </c>
       <c r="H32" t="n">
-        <v>294.0028056796715</v>
+        <v>294.0028056796714</v>
       </c>
       <c r="I32" t="n">
-        <v>45.32649215432387</v>
+        <v>45.32649215432384</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>110.5125274909098</v>
       </c>
       <c r="T32" t="n">
-        <v>202.411114728862</v>
+        <v>202.4111147288608</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8273229720863</v>
+        <v>248.8273229720872</v>
       </c>
       <c r="V32" t="n">
-        <v>325.5721047745147</v>
+        <v>325.5721047745146</v>
       </c>
       <c r="W32" t="n">
-        <v>347.0608150217928</v>
+        <v>347.0608150217927</v>
       </c>
       <c r="X32" t="n">
         <v>367.5509469828488</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.0577849604334</v>
+        <v>384.0577849604333</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.651826486317</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0666674030076</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>146.4353193225921</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>83.20390459971459</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>143.240894327311</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9146479229666</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1882749064126</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>89.85419130512652</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.6635853895721</v>
       </c>
       <c r="U34" t="n">
-        <v>284.0354477841504</v>
+        <v>284.0354477841503</v>
       </c>
       <c r="V34" t="n">
-        <v>249.9574896282078</v>
+        <v>249.9574896282077</v>
       </c>
       <c r="W34" t="n">
-        <v>22.04868422139858</v>
+        <v>284.3428446409707</v>
       </c>
       <c r="X34" t="n">
         <v>223.5295016934169</v>
@@ -3277,13 +3277,13 @@
         <v>331.8346697791446</v>
       </c>
       <c r="F35" t="n">
-        <v>356.7803454485942</v>
+        <v>356.7803454485943</v>
       </c>
       <c r="G35" t="n">
-        <v>360.9798342203847</v>
+        <v>360.9798342203848</v>
       </c>
       <c r="H35" t="n">
-        <v>246.0872590821745</v>
+        <v>246.0872590821746</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.59698089341286</v>
+        <v>62.59698089341288</v>
       </c>
       <c r="T35" t="n">
-        <v>154.4955681313664</v>
+        <v>154.4955681313651</v>
       </c>
       <c r="U35" t="n">
         <v>200.9117763745887</v>
       </c>
       <c r="V35" t="n">
-        <v>277.6565581770177</v>
+        <v>277.6565581770178</v>
       </c>
       <c r="W35" t="n">
-        <v>299.1452684242958</v>
+        <v>299.1452684242959</v>
       </c>
       <c r="X35" t="n">
-        <v>319.6354003853518</v>
+        <v>319.6354003853519</v>
       </c>
       <c r="Y35" t="n">
         <v>336.1422383629364</v>
@@ -3426,25 +3426,25 @@
         <v>129.7362798888201</v>
       </c>
       <c r="C37" t="n">
-        <v>117.1511208055106</v>
+        <v>117.1511208055107</v>
       </c>
       <c r="D37" t="n">
-        <v>98.51977272509517</v>
+        <v>98.51977272509518</v>
       </c>
       <c r="E37" t="n">
-        <v>96.33826235345198</v>
+        <v>96.338262353452</v>
       </c>
       <c r="F37" t="n">
-        <v>95.32534772981406</v>
+        <v>95.32534772981407</v>
       </c>
       <c r="G37" t="n">
         <v>115.9991013254697</v>
       </c>
       <c r="H37" t="n">
-        <v>95.27272830891569</v>
+        <v>95.27272830891572</v>
       </c>
       <c r="I37" t="n">
-        <v>48.33153860235655</v>
+        <v>48.33153860235656</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93864470762961</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S37" t="n">
-        <v>140.875691131724</v>
+        <v>140.8756911317236</v>
       </c>
       <c r="T37" t="n">
-        <v>169.7480387920751</v>
+        <v>169.7480387920752</v>
       </c>
       <c r="U37" t="n">
         <v>236.1199011866534</v>
@@ -3489,7 +3489,7 @@
         <v>236.4272980434738</v>
       </c>
       <c r="X37" t="n">
-        <v>175.6139550959199</v>
+        <v>175.61395509592</v>
       </c>
       <c r="Y37" t="n">
         <v>168.4889530589776</v>
@@ -3505,7 +3505,7 @@
         <v>332.6381413703634</v>
       </c>
       <c r="C38" t="n">
-        <v>315.1771914778903</v>
+        <v>315.1771914778904</v>
       </c>
       <c r="D38" t="n">
         <v>304.5873413275658</v>
@@ -3514,10 +3514,10 @@
         <v>331.8346697791446</v>
       </c>
       <c r="F38" t="n">
-        <v>356.7803454485942</v>
+        <v>356.7803454485943</v>
       </c>
       <c r="G38" t="n">
-        <v>360.9798342203847</v>
+        <v>360.9798342203848</v>
       </c>
       <c r="H38" t="n">
         <v>246.0872590821745</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.59698089341285</v>
+        <v>62.5969808934124</v>
       </c>
       <c r="T38" t="n">
-        <v>154.4955681313651</v>
+        <v>154.4955681313664</v>
       </c>
       <c r="U38" t="n">
-        <v>200.9117763745892</v>
+        <v>200.9117763745887</v>
       </c>
       <c r="V38" t="n">
-        <v>277.6565581770177</v>
+        <v>277.6565581770178</v>
       </c>
       <c r="W38" t="n">
-        <v>299.1452684242958</v>
+        <v>299.1452684242959</v>
       </c>
       <c r="X38" t="n">
-        <v>319.6354003853518</v>
+        <v>319.6354003853519</v>
       </c>
       <c r="Y38" t="n">
         <v>336.1422383629364</v>
@@ -3663,25 +3663,25 @@
         <v>129.7362798888201</v>
       </c>
       <c r="C40" t="n">
-        <v>117.1511208055106</v>
+        <v>117.1511208055107</v>
       </c>
       <c r="D40" t="n">
-        <v>98.51977272509515</v>
+        <v>98.51977272509518</v>
       </c>
       <c r="E40" t="n">
-        <v>96.33826235345197</v>
+        <v>96.338262353452</v>
       </c>
       <c r="F40" t="n">
-        <v>95.32534772981404</v>
+        <v>95.32534772981407</v>
       </c>
       <c r="G40" t="n">
-        <v>115.9991013254696</v>
+        <v>115.9991013254697</v>
       </c>
       <c r="H40" t="n">
-        <v>95.27272830891569</v>
+        <v>95.2727283089157</v>
       </c>
       <c r="I40" t="n">
-        <v>48.33153860235653</v>
+        <v>48.33153860235657</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93864470762959</v>
+        <v>41.93864470762963</v>
       </c>
       <c r="S40" t="n">
         <v>140.8756911317236</v>
@@ -3726,7 +3726,7 @@
         <v>236.4272980434738</v>
       </c>
       <c r="X40" t="n">
-        <v>175.6139550959199</v>
+        <v>175.61395509592</v>
       </c>
       <c r="Y40" t="n">
         <v>168.4889530589776</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.5969808934133</v>
+        <v>62.5969808934124</v>
       </c>
       <c r="T41" t="n">
         <v>154.4955681313651</v>
       </c>
       <c r="U41" t="n">
-        <v>200.9117763745886</v>
+        <v>200.9117763745887</v>
       </c>
       <c r="V41" t="n">
         <v>277.6565581770177</v>
@@ -3903,22 +3903,22 @@
         <v>117.1511208055106</v>
       </c>
       <c r="D43" t="n">
-        <v>98.51977272509515</v>
+        <v>98.51977272509517</v>
       </c>
       <c r="E43" t="n">
-        <v>96.33826235345197</v>
+        <v>96.33826235345198</v>
       </c>
       <c r="F43" t="n">
-        <v>95.32534772981404</v>
+        <v>95.32534772981406</v>
       </c>
       <c r="G43" t="n">
-        <v>115.9991013254696</v>
+        <v>115.9991013254697</v>
       </c>
       <c r="H43" t="n">
-        <v>95.27272830891569</v>
+        <v>95.27272830891621</v>
       </c>
       <c r="I43" t="n">
-        <v>48.33153860235653</v>
+        <v>48.33153860235655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93864470762988</v>
+        <v>41.93864470762961</v>
       </c>
       <c r="S43" t="n">
         <v>140.8756911317236</v>
@@ -4140,22 +4140,22 @@
         <v>117.1511208055106</v>
       </c>
       <c r="D46" t="n">
-        <v>98.51977272509515</v>
+        <v>98.51977272509517</v>
       </c>
       <c r="E46" t="n">
-        <v>96.33826235345197</v>
+        <v>96.33826235345198</v>
       </c>
       <c r="F46" t="n">
-        <v>95.32534772981404</v>
+        <v>95.32534772981406</v>
       </c>
       <c r="G46" t="n">
-        <v>115.9991013254696</v>
+        <v>115.9991013254697</v>
       </c>
       <c r="H46" t="n">
-        <v>95.27272830891569</v>
+        <v>95.2727283089157</v>
       </c>
       <c r="I46" t="n">
-        <v>48.33153860235723</v>
+        <v>48.33153860235706</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.93864470762959</v>
+        <v>41.93864470762961</v>
       </c>
       <c r="S46" t="n">
         <v>140.8756911317236</v>
@@ -4312,37 +4312,37 @@
         <v>20.55868221764227</v>
       </c>
       <c r="D2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F2" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J2" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M2" t="n">
-        <v>20.69689768255142</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N2" t="n">
-        <v>20.69689768255142</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O2" t="n">
         <v>20.69689768255142</v>
@@ -4351,13 +4351,13 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S2" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T2" t="n">
         <v>20.55868221764227</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="C3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="D3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="E3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="F3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="G3" t="n">
-        <v>1.304216312122629</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H3" t="n">
-        <v>1.304216312122629</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I3" t="n">
         <v>1.304216312122629</v>
@@ -4412,19 +4412,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L3" t="n">
         <v>7.082327113962777</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O3" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N3" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O3" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P3" t="n">
         <v>27.50418296684575</v>
@@ -4433,28 +4433,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
-        <v>13.6131814684388</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="T3" t="n">
-        <v>6.667680719235332</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="U3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="V3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="W3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="X3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.304216312122629</v>
+        <v>22.14071855973305</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C4" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D4" t="n">
-        <v>7.495584408540386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
         <v>0.5500836593369149</v>
@@ -4494,7 +4494,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M4" t="n">
         <v>13.8896123982571</v>
@@ -4521,19 +4521,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X4" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.495584408540386</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F5" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="D5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
@@ -4570,16 +4570,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N5" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
         <v>20.69689768255142</v>
@@ -4588,31 +4588,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.6131814684388</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6131814684388</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="D6" t="n">
-        <v>7.495584408540386</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
-        <v>7.357368943631237</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N6" t="n">
-        <v>14.16465422792556</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O6" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4673,25 +4673,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.6131814684388</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.80975218218115</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D7" t="n">
         <v>7.495584408540386</v>
@@ -4725,13 +4725,13 @@
         <v>7.495584408540386</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M7" t="n">
         <v>13.8896123982571</v>
@@ -4746,31 +4746,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R7" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S7" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T7" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U7" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V7" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W7" t="n">
-        <v>17.80975218218115</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X7" t="n">
-        <v>17.80975218218115</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.80975218218115</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="C8" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="D8" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="E8" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="F8" t="n">
-        <v>16.68152962255934</v>
+        <v>28.75151886964269</v>
       </c>
       <c r="G8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="I8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M8" t="n">
         <v>16.37392914119451</v>
@@ -4828,28 +4828,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="T8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="U8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="V8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="W8" t="n">
-        <v>51.11933469231312</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="X8" t="n">
-        <v>39.08434099311135</v>
+        <v>35.69701961884617</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.62703037176281</v>
+        <v>35.69701961884617</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="C9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="D9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="F9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G9" t="n">
-        <v>32.89297289669359</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H9" t="n">
         <v>17.43566227534506</v>
@@ -4889,19 +4889,19 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
@@ -4910,25 +4910,25 @@
         <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>32.89297289669359</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="C10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="D10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="G10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="H10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="I10" t="n">
-        <v>27.54739878238201</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="J10" t="n">
-        <v>12.09008816103347</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4974,7 +4974,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4986,28 +4986,28 @@
         <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="U10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="V10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="W10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="X10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.54739878238201</v>
+        <v>43.00470940373054</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2015.162935454691</v>
+        <v>2015.162935454692</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.802135982075</v>
+        <v>1696.802135982076</v>
       </c>
       <c r="D11" t="n">
-        <v>1389.138154843119</v>
+        <v>1389.13815484312</v>
       </c>
       <c r="E11" t="n">
-        <v>1053.95161971267</v>
+        <v>1053.951619712671</v>
       </c>
       <c r="F11" t="n">
         <v>693.5674323908574</v>
@@ -5035,58 +5035,58 @@
         <v>328.9413372187516</v>
       </c>
       <c r="H11" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="I11" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J11" t="n">
-        <v>256.3236878177012</v>
+        <v>423.7293368380543</v>
       </c>
       <c r="K11" t="n">
-        <v>570.7736483639726</v>
+        <v>839.6885819188039</v>
       </c>
       <c r="L11" t="n">
-        <v>1411.262994252051</v>
+        <v>1266.693325401937</v>
       </c>
       <c r="M11" t="n">
-        <v>1918.057483826962</v>
+        <v>1773.487814976847</v>
       </c>
       <c r="N11" t="n">
-        <v>2509.936215676445</v>
+        <v>2293.096577609239</v>
       </c>
       <c r="O11" t="n">
-        <v>3364.244954063096</v>
+        <v>2770.413136545772</v>
       </c>
       <c r="P11" t="n">
-        <v>3737.122593147591</v>
+        <v>3461.871496720034</v>
       </c>
       <c r="Q11" t="n">
-        <v>3968.965424633072</v>
+        <v>3903.90616895882</v>
       </c>
       <c r="R11" t="n">
-        <v>4018.417412342905</v>
+        <v>4018.417412342907</v>
       </c>
       <c r="S11" t="n">
-        <v>3955.188138713195</v>
+        <v>3955.188138713197</v>
       </c>
       <c r="T11" t="n">
-        <v>3799.132009287574</v>
+        <v>3799.132009287575</v>
       </c>
       <c r="U11" t="n">
-        <v>3596.190821030414</v>
+        <v>3596.190821030415</v>
       </c>
       <c r="V11" t="n">
-        <v>3315.729651154638</v>
+        <v>3315.72965115464</v>
       </c>
       <c r="W11" t="n">
-        <v>3013.562713352319</v>
+        <v>3013.562713352321</v>
       </c>
       <c r="X11" t="n">
-        <v>2690.698672559035</v>
+        <v>2690.698672559036</v>
       </c>
       <c r="Y11" t="n">
-        <v>2351.161058051018</v>
+        <v>2351.161058051019</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>319.76058033179</v>
       </c>
       <c r="G12" t="n">
-        <v>183.3143539065689</v>
+        <v>183.314353906569</v>
       </c>
       <c r="H12" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635764</v>
       </c>
       <c r="I12" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J12" t="n">
-        <v>166.3482961235085</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K12" t="n">
-        <v>391.4565464542377</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L12" t="n">
-        <v>740.4649102625889</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M12" t="n">
-        <v>1167.098077338168</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N12" t="n">
-        <v>1619.431599775375</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O12" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P12" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q12" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R12" t="n">
         <v>2574.169926664026</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>754.042966277781</v>
+        <v>754.0429662777813</v>
       </c>
       <c r="C13" t="n">
-        <v>635.7085008176692</v>
+        <v>635.7085008176695</v>
       </c>
       <c r="D13" t="n">
-        <v>536.1935788731287</v>
+        <v>536.1935788731289</v>
       </c>
       <c r="E13" t="n">
-        <v>438.8822027585307</v>
+        <v>438.8822027585309</v>
       </c>
       <c r="F13" t="n">
-        <v>342.5939727284155</v>
+        <v>342.5939727284156</v>
       </c>
       <c r="G13" t="n">
-        <v>225.4231633087491</v>
+        <v>225.4231633087493</v>
       </c>
       <c r="H13" t="n">
-        <v>129.1880842088342</v>
+        <v>129.1880842088344</v>
       </c>
       <c r="I13" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J13" t="n">
         <v>170.2566717683931</v>
       </c>
       <c r="K13" t="n">
-        <v>415.9029817910227</v>
+        <v>415.9029817910228</v>
       </c>
       <c r="L13" t="n">
         <v>771.9026669097096</v>
@@ -5257,7 +5257,7 @@
         <v>2015.162935454691</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982075</v>
       </c>
       <c r="D14" t="n">
         <v>1389.138154843119</v>
@@ -5266,46 +5266,46 @@
         <v>1053.95161971267</v>
       </c>
       <c r="F14" t="n">
-        <v>693.5674323908573</v>
+        <v>693.5674323908574</v>
       </c>
       <c r="G14" t="n">
         <v>328.9413372187516</v>
       </c>
       <c r="H14" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="I14" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J14" t="n">
-        <v>256.3236878177012</v>
+        <v>423.7293368380543</v>
       </c>
       <c r="K14" t="n">
-        <v>570.7736483639726</v>
+        <v>839.6885819188039</v>
       </c>
       <c r="L14" t="n">
-        <v>997.7783918471055</v>
+        <v>1266.693325401937</v>
       </c>
       <c r="M14" t="n">
-        <v>1949.59127957992</v>
+        <v>1773.487814976847</v>
       </c>
       <c r="N14" t="n">
-        <v>2886.928395126564</v>
+        <v>2293.096577609239</v>
       </c>
       <c r="O14" t="n">
-        <v>3364.244954063096</v>
+        <v>2770.413136545772</v>
       </c>
       <c r="P14" t="n">
-        <v>3737.122593147591</v>
+        <v>3461.871496720034</v>
       </c>
       <c r="Q14" t="n">
-        <v>3968.965424633072</v>
+        <v>3903.90616895882</v>
       </c>
       <c r="R14" t="n">
-        <v>4018.417412342905</v>
+        <v>4018.417412342907</v>
       </c>
       <c r="S14" t="n">
-        <v>3955.188138713196</v>
+        <v>3955.188138713197</v>
       </c>
       <c r="T14" t="n">
         <v>3799.132009287574</v>
@@ -5320,10 +5320,10 @@
         <v>3013.562713352319</v>
       </c>
       <c r="X14" t="n">
-        <v>2690.698672559034</v>
+        <v>2690.698672559035</v>
       </c>
       <c r="Y14" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051018</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>319.76058033179</v>
       </c>
       <c r="G15" t="n">
-        <v>183.3143539065689</v>
+        <v>183.314353906569</v>
       </c>
       <c r="H15" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635764</v>
       </c>
       <c r="I15" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J15" t="n">
-        <v>166.3482961235085</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K15" t="n">
-        <v>391.4565464542377</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L15" t="n">
-        <v>740.4649102625889</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M15" t="n">
-        <v>1288.075670234813</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.40919267202</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O15" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P15" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q15" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R15" t="n">
         <v>2574.169926664026</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>754.0429662777815</v>
+        <v>754.0429662777813</v>
       </c>
       <c r="C16" t="n">
-        <v>635.7085008176698</v>
+        <v>635.7085008176695</v>
       </c>
       <c r="D16" t="n">
-        <v>536.1935788731291</v>
+        <v>536.1935788731289</v>
       </c>
       <c r="E16" t="n">
-        <v>438.8822027585311</v>
+        <v>438.8822027585309</v>
       </c>
       <c r="F16" t="n">
-        <v>342.5939727284158</v>
+        <v>342.5939727284157</v>
       </c>
       <c r="G16" t="n">
-        <v>225.4231633087495</v>
+        <v>225.4231633087493</v>
       </c>
       <c r="H16" t="n">
-        <v>129.1880842088347</v>
+        <v>129.1880842088345</v>
       </c>
       <c r="I16" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J16" t="n">
         <v>170.2566717683931</v>
       </c>
       <c r="K16" t="n">
-        <v>415.9029817910228</v>
+        <v>415.9029817910229</v>
       </c>
       <c r="L16" t="n">
-        <v>771.9026669097096</v>
+        <v>771.9026669097098</v>
       </c>
       <c r="M16" t="n">
         <v>1154.947583309621</v>
@@ -5454,7 +5454,7 @@
         <v>1874.768379733461</v>
       </c>
       <c r="P16" t="n">
-        <v>2148.709634557196</v>
+        <v>2148.709634557195</v>
       </c>
       <c r="Q16" t="n">
         <v>2270.195193485846</v>
@@ -5466,13 +5466,13 @@
         <v>2085.53424819357</v>
       </c>
       <c r="T16" t="n">
-        <v>1914.07158274703</v>
+        <v>1914.071582747029</v>
       </c>
       <c r="U16" t="n">
-        <v>1675.566632053441</v>
+        <v>1675.56663205344</v>
       </c>
       <c r="V16" t="n">
-        <v>1471.483861315349</v>
+        <v>1471.483861315348</v>
       </c>
       <c r="W16" t="n">
         <v>1232.668408746183</v>
@@ -5481,7 +5481,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y16" t="n">
-        <v>885.0897136402261</v>
+        <v>885.0897136402258</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2015.162935454691</v>
+        <v>2015.162935454692</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.802135982075</v>
+        <v>1696.802135982076</v>
       </c>
       <c r="D17" t="n">
-        <v>1389.138154843119</v>
+        <v>1389.13815484312</v>
       </c>
       <c r="E17" t="n">
-        <v>1053.95161971267</v>
+        <v>1053.951619712671</v>
       </c>
       <c r="F17" t="n">
-        <v>693.5674323908576</v>
+        <v>693.5674323908589</v>
       </c>
       <c r="G17" t="n">
-        <v>328.9413372187517</v>
+        <v>328.9413372187531</v>
       </c>
       <c r="H17" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="I17" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J17" t="n">
-        <v>256.3236878177012</v>
+        <v>423.7293368380543</v>
       </c>
       <c r="K17" t="n">
-        <v>570.7736483639726</v>
+        <v>738.1792973843258</v>
       </c>
       <c r="L17" t="n">
-        <v>997.7783918471055</v>
+        <v>1165.184040867459</v>
       </c>
       <c r="M17" t="n">
-        <v>1934.346177326307</v>
+        <v>2116.996928600273</v>
       </c>
       <c r="N17" t="n">
-        <v>2886.928395126564</v>
+        <v>2636.605691232665</v>
       </c>
       <c r="O17" t="n">
-        <v>3364.244954063096</v>
+        <v>3113.922250169197</v>
       </c>
       <c r="P17" t="n">
-        <v>3737.122593147591</v>
+        <v>3737.122593147593</v>
       </c>
       <c r="Q17" t="n">
-        <v>3968.965424633072</v>
+        <v>3968.965424633073</v>
       </c>
       <c r="R17" t="n">
-        <v>4018.417412342905</v>
+        <v>4018.417412342907</v>
       </c>
       <c r="S17" t="n">
-        <v>3955.188138713195</v>
+        <v>3955.188138713197</v>
       </c>
       <c r="T17" t="n">
-        <v>3799.132009287574</v>
+        <v>3799.132009287575</v>
       </c>
       <c r="U17" t="n">
-        <v>3596.190821030414</v>
+        <v>3596.190821030415</v>
       </c>
       <c r="V17" t="n">
-        <v>3315.729651154638</v>
+        <v>3315.72965115464</v>
       </c>
       <c r="W17" t="n">
-        <v>3013.562713352319</v>
+        <v>3013.562713352321</v>
       </c>
       <c r="X17" t="n">
-        <v>2690.698672559035</v>
+        <v>2690.698672559036</v>
       </c>
       <c r="Y17" t="n">
-        <v>2351.161058051018</v>
+        <v>2351.161058051019</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>319.76058033179</v>
       </c>
       <c r="G18" t="n">
-        <v>183.3143539065689</v>
+        <v>183.314353906569</v>
       </c>
       <c r="H18" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635764</v>
       </c>
       <c r="I18" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J18" t="n">
-        <v>287.3258890201537</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K18" t="n">
-        <v>512.4341393508829</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L18" t="n">
-        <v>861.4425031592341</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M18" t="n">
-        <v>1288.075670234813</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.40919267202</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O18" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P18" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R18" t="n">
         <v>2574.169926664026</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>754.0429662777813</v>
+        <v>754.0429662777811</v>
       </c>
       <c r="C19" t="n">
-        <v>635.7085008176695</v>
+        <v>635.7085008176693</v>
       </c>
       <c r="D19" t="n">
-        <v>536.1935788731289</v>
+        <v>536.1935788731287</v>
       </c>
       <c r="E19" t="n">
-        <v>438.8822027585309</v>
+        <v>438.8822027585307</v>
       </c>
       <c r="F19" t="n">
-        <v>342.5939727284156</v>
+        <v>342.5939727284155</v>
       </c>
       <c r="G19" t="n">
-        <v>225.4231633087493</v>
+        <v>225.4231633087491</v>
       </c>
       <c r="H19" t="n">
-        <v>129.1880842088344</v>
+        <v>129.1880842088342</v>
       </c>
       <c r="I19" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J19" t="n">
         <v>170.2566717683931</v>
@@ -5679,7 +5679,7 @@
         <v>415.9029817910227</v>
       </c>
       <c r="L19" t="n">
-        <v>771.9026669097096</v>
+        <v>771.9026669097095</v>
       </c>
       <c r="M19" t="n">
         <v>1154.947583309621</v>
@@ -5718,7 +5718,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y19" t="n">
-        <v>885.0897136402258</v>
+        <v>885.0897136402257</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2015.162935454692</v>
       </c>
       <c r="C20" t="n">
-        <v>1696.802135982075</v>
+        <v>1696.802135982076</v>
       </c>
       <c r="D20" t="n">
         <v>1389.13815484312</v>
@@ -5740,52 +5740,52 @@
         <v>1053.951619712671</v>
       </c>
       <c r="F20" t="n">
-        <v>693.5674323908584</v>
+        <v>693.5674323908588</v>
       </c>
       <c r="G20" t="n">
         <v>328.9413372187516</v>
       </c>
       <c r="H20" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="I20" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J20" t="n">
-        <v>256.3236878177012</v>
+        <v>423.7293368380543</v>
       </c>
       <c r="K20" t="n">
-        <v>570.7736483639726</v>
+        <v>738.1792973843258</v>
       </c>
       <c r="L20" t="n">
-        <v>1411.262994252051</v>
+        <v>1165.184040867459</v>
       </c>
       <c r="M20" t="n">
-        <v>1918.057483826962</v>
+        <v>1671.978530442369</v>
       </c>
       <c r="N20" t="n">
-        <v>2437.666246459354</v>
+        <v>2191.587293074761</v>
       </c>
       <c r="O20" t="n">
-        <v>3291.974984846004</v>
+        <v>2770.413136545772</v>
       </c>
       <c r="P20" t="n">
-        <v>3672.063337473339</v>
+        <v>3461.871496720034</v>
       </c>
       <c r="Q20" t="n">
-        <v>3903.906168958819</v>
+        <v>3903.90616895882</v>
       </c>
       <c r="R20" t="n">
-        <v>4018.417412342905</v>
+        <v>4018.417412342907</v>
       </c>
       <c r="S20" t="n">
-        <v>3955.188138713195</v>
+        <v>3955.188138713197</v>
       </c>
       <c r="T20" t="n">
-        <v>3799.132009287574</v>
+        <v>3799.132009287576</v>
       </c>
       <c r="U20" t="n">
-        <v>3596.190821030414</v>
+        <v>3596.190821030415</v>
       </c>
       <c r="V20" t="n">
         <v>3315.729651154639</v>
@@ -5797,7 +5797,7 @@
         <v>2690.698672559035</v>
       </c>
       <c r="Y20" t="n">
-        <v>2351.161058051018</v>
+        <v>2351.161058051019</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>319.76058033179</v>
       </c>
       <c r="G21" t="n">
-        <v>183.3143539065689</v>
+        <v>183.314353906569</v>
       </c>
       <c r="H21" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635764</v>
       </c>
       <c r="I21" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J21" t="n">
-        <v>166.3482961235085</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K21" t="n">
-        <v>391.4565464542377</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L21" t="n">
-        <v>740.4649102625889</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M21" t="n">
-        <v>1167.098077338168</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.40919267202</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O21" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P21" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R21" t="n">
         <v>2574.169926664026</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>754.0429662777813</v>
+        <v>754.042966277781</v>
       </c>
       <c r="C22" t="n">
-        <v>635.7085008176695</v>
+        <v>635.7085008176692</v>
       </c>
       <c r="D22" t="n">
-        <v>536.1935788731289</v>
+        <v>536.193578873129</v>
       </c>
       <c r="E22" t="n">
-        <v>438.8822027585309</v>
+        <v>438.882202758531</v>
       </c>
       <c r="F22" t="n">
-        <v>342.5939727284156</v>
+        <v>342.5939727284157</v>
       </c>
       <c r="G22" t="n">
-        <v>225.4231633087493</v>
+        <v>225.4231633087494</v>
       </c>
       <c r="H22" t="n">
-        <v>129.1880842088344</v>
+        <v>129.1880842088345</v>
       </c>
       <c r="I22" t="n">
-        <v>80.3683482468581</v>
+        <v>80.36834824685813</v>
       </c>
       <c r="J22" t="n">
         <v>170.2566717683931</v>
@@ -5955,7 +5955,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y22" t="n">
-        <v>885.0897136402258</v>
+        <v>885.0897136402257</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>80.3683482468581</v>
       </c>
       <c r="J23" t="n">
-        <v>256.3236878177012</v>
+        <v>423.7293368380542</v>
       </c>
       <c r="K23" t="n">
-        <v>570.7736483639726</v>
+        <v>738.1792973843257</v>
       </c>
       <c r="L23" t="n">
-        <v>997.7783918471055</v>
+        <v>1165.184040867458</v>
       </c>
       <c r="M23" t="n">
-        <v>1949.59127957992</v>
+        <v>1671.978530442369</v>
       </c>
       <c r="N23" t="n">
-        <v>2886.928395126564</v>
+        <v>2191.587293074761</v>
       </c>
       <c r="O23" t="n">
-        <v>3364.244954063096</v>
+        <v>2770.41313654577</v>
       </c>
       <c r="P23" t="n">
-        <v>3737.122593147591</v>
+        <v>3461.871496720033</v>
       </c>
       <c r="Q23" t="n">
-        <v>3968.965424633072</v>
+        <v>3903.906168958819</v>
       </c>
       <c r="R23" t="n">
         <v>4018.417412342905</v>
@@ -6068,28 +6068,28 @@
         <v>80.3683482468581</v>
       </c>
       <c r="J24" t="n">
-        <v>287.3258890201537</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K24" t="n">
-        <v>512.4341393508829</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L24" t="n">
-        <v>861.4425031592341</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M24" t="n">
-        <v>1288.075670234813</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N24" t="n">
-        <v>1740.40919267202</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O24" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P24" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q24" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R24" t="n">
         <v>2574.169926664026</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>754.042966277781</v>
+        <v>754.0429662777815</v>
       </c>
       <c r="C25" t="n">
-        <v>635.7085008176692</v>
+        <v>635.7085008176697</v>
       </c>
       <c r="D25" t="n">
-        <v>536.1935788731287</v>
+        <v>536.1935788731291</v>
       </c>
       <c r="E25" t="n">
-        <v>438.8822027585307</v>
+        <v>438.8822027585311</v>
       </c>
       <c r="F25" t="n">
-        <v>342.5939727284155</v>
+        <v>342.5939727284158</v>
       </c>
       <c r="G25" t="n">
-        <v>225.4231633087496</v>
+        <v>225.4231633087495</v>
       </c>
       <c r="H25" t="n">
-        <v>129.1880842088348</v>
+        <v>129.1880842088347</v>
       </c>
       <c r="I25" t="n">
         <v>80.3683482468581</v>
       </c>
       <c r="J25" t="n">
-        <v>170.256671768393</v>
+        <v>170.2566717683934</v>
       </c>
       <c r="K25" t="n">
-        <v>415.9029817910227</v>
+        <v>415.9029817910231</v>
       </c>
       <c r="L25" t="n">
-        <v>771.9026669097095</v>
+        <v>771.90266690971</v>
       </c>
       <c r="M25" t="n">
         <v>1154.947583309621</v>
@@ -6183,7 +6183,7 @@
         <v>1675.56663205344</v>
       </c>
       <c r="V25" t="n">
-        <v>1471.483861315348</v>
+        <v>1471.483861315349</v>
       </c>
       <c r="W25" t="n">
         <v>1232.668408746183</v>
@@ -6192,7 +6192,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y25" t="n">
-        <v>885.0897136402256</v>
+        <v>885.089713640226</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2382.196701333423</v>
+        <v>2382.196701333422</v>
       </c>
       <c r="C26" t="n">
         <v>2013.234184393011</v>
@@ -6211,13 +6211,13 @@
         <v>1654.968485786261</v>
       </c>
       <c r="E26" t="n">
-        <v>1269.180233188016</v>
+        <v>1269.180233188017</v>
       </c>
       <c r="F26" t="n">
-        <v>858.194328398409</v>
+        <v>858.1943283984092</v>
       </c>
       <c r="G26" t="n">
-        <v>442.966515758508</v>
+        <v>442.9665157585081</v>
       </c>
       <c r="H26" t="n">
         <v>143.7918093188195</v>
@@ -6226,28 +6226,28 @@
         <v>95.80529835927997</v>
       </c>
       <c r="J26" t="n">
-        <v>271.760637930123</v>
+        <v>439.1662869504761</v>
       </c>
       <c r="K26" t="n">
-        <v>595.3107282367394</v>
+        <v>821.0593056848306</v>
       </c>
       <c r="L26" t="n">
-        <v>1435.800074124818</v>
+        <v>1661.548651572909</v>
       </c>
       <c r="M26" t="n">
-        <v>2387.612961857633</v>
+        <v>2168.34314114782</v>
       </c>
       <c r="N26" t="n">
-        <v>3340.195179657889</v>
+        <v>2687.951903780212</v>
       </c>
       <c r="O26" t="n">
-        <v>3817.511738594421</v>
+        <v>3542.260642166862</v>
       </c>
       <c r="P26" t="n">
-        <v>4508.970098768685</v>
+        <v>4233.719002341126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4740.812930254165</v>
+        <v>4675.753674579912</v>
       </c>
       <c r="R26" t="n">
         <v>4790.264917963998</v>
@@ -6256,22 +6256,22 @@
         <v>4676.433926866493</v>
       </c>
       <c r="T26" t="n">
-        <v>4469.776079973076</v>
+        <v>4469.776079973077</v>
       </c>
       <c r="U26" t="n">
         <v>4216.233174248121</v>
       </c>
       <c r="V26" t="n">
-        <v>3885.170286904551</v>
+        <v>3885.17028690455</v>
       </c>
       <c r="W26" t="n">
         <v>3532.401631634436</v>
       </c>
       <c r="X26" t="n">
-        <v>3158.935873373357</v>
+        <v>3158.935873373356</v>
       </c>
       <c r="Y26" t="n">
-        <v>2768.796541397545</v>
+        <v>2768.796541397544</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>95.80529835927997</v>
       </c>
       <c r="J27" t="n">
-        <v>302.7628391325752</v>
+        <v>262.8962802737942</v>
       </c>
       <c r="K27" t="n">
-        <v>527.8710894633044</v>
+        <v>488.0045306045234</v>
       </c>
       <c r="L27" t="n">
-        <v>876.8794532716556</v>
+        <v>837.0128944128746</v>
       </c>
       <c r="M27" t="n">
-        <v>1303.512620347234</v>
+        <v>1263.646061488453</v>
       </c>
       <c r="N27" t="n">
-        <v>1755.846142784441</v>
+        <v>1715.97958392566</v>
       </c>
       <c r="O27" t="n">
-        <v>2147.423150089184</v>
+        <v>2107.556591230403</v>
       </c>
       <c r="P27" t="n">
-        <v>2442.365154246736</v>
+        <v>2402.498595387955</v>
       </c>
       <c r="Q27" t="n">
-        <v>2589.606876776448</v>
+        <v>2549.740317917667</v>
       </c>
       <c r="R27" t="n">
         <v>2589.606876776448</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>730.5437411693772</v>
+        <v>510.912372258906</v>
       </c>
       <c r="C28" t="n">
-        <v>561.6075582414703</v>
+        <v>510.912372258906</v>
       </c>
       <c r="D28" t="n">
-        <v>411.4909188291346</v>
+        <v>510.912372258906</v>
       </c>
       <c r="E28" t="n">
-        <v>263.5778252467414</v>
+        <v>362.9992786765129</v>
       </c>
       <c r="F28" t="n">
-        <v>263.5778252467414</v>
+        <v>362.9992786765129</v>
       </c>
       <c r="G28" t="n">
-        <v>95.80529835927997</v>
+        <v>195.2267517890514</v>
       </c>
       <c r="H28" t="n">
-        <v>95.80529835927997</v>
+        <v>195.2267517890514</v>
       </c>
       <c r="I28" t="n">
         <v>95.80529835927997</v>
@@ -6414,22 +6414,22 @@
         <v>1695.973801898153</v>
       </c>
       <c r="T28" t="n">
-        <v>1473.909418983817</v>
+        <v>1685.134123497965</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.669273349034</v>
+        <v>1396.02745533658</v>
       </c>
       <c r="V28" t="n">
-        <v>1132.984785143147</v>
+        <v>1141.342967130693</v>
       </c>
       <c r="W28" t="n">
-        <v>1132.984785143147</v>
+        <v>1141.342967130693</v>
       </c>
       <c r="X28" t="n">
-        <v>1132.984785143147</v>
+        <v>913.3534162326758</v>
       </c>
       <c r="Y28" t="n">
-        <v>912.1922059996169</v>
+        <v>692.5608370891457</v>
       </c>
     </row>
     <row r="29">
@@ -6442,19 +6442,19 @@
         <v>2382.196701333422</v>
       </c>
       <c r="C29" t="n">
-        <v>2013.23418439301</v>
+        <v>2013.234184393011</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.96848578626</v>
+        <v>1654.968485786261</v>
       </c>
       <c r="E29" t="n">
-        <v>1269.180233188016</v>
+        <v>1269.180233188017</v>
       </c>
       <c r="F29" t="n">
-        <v>858.1943283984083</v>
+        <v>858.1943283984092</v>
       </c>
       <c r="G29" t="n">
-        <v>442.9665157585077</v>
+        <v>442.9665157585081</v>
       </c>
       <c r="H29" t="n">
         <v>143.7918093188195</v>
@@ -6463,28 +6463,28 @@
         <v>95.80529835927997</v>
       </c>
       <c r="J29" t="n">
-        <v>271.760637930123</v>
+        <v>439.1662869504761</v>
       </c>
       <c r="K29" t="n">
-        <v>586.2105984763945</v>
+        <v>1074.520205942201</v>
       </c>
       <c r="L29" t="n">
-        <v>1426.699944364473</v>
+        <v>1501.524949425333</v>
       </c>
       <c r="M29" t="n">
-        <v>2378.512832097288</v>
+        <v>2008.319439000244</v>
       </c>
       <c r="N29" t="n">
-        <v>3331.095049897544</v>
+        <v>2687.951903780212</v>
       </c>
       <c r="O29" t="n">
-        <v>4136.09245968419</v>
+        <v>3542.260642166862</v>
       </c>
       <c r="P29" t="n">
-        <v>4508.970098768685</v>
+        <v>4233.719002341126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4740.812930254165</v>
+        <v>4675.753674579912</v>
       </c>
       <c r="R29" t="n">
         <v>4790.264917963998</v>
@@ -6493,22 +6493,22 @@
         <v>4676.433926866493</v>
       </c>
       <c r="T29" t="n">
-        <v>4469.776079973076</v>
+        <v>4469.776079973077</v>
       </c>
       <c r="U29" t="n">
-        <v>4216.23317424812</v>
+        <v>4216.233174248121</v>
       </c>
       <c r="V29" t="n">
-        <v>3885.170286904549</v>
+        <v>3885.17028690455</v>
       </c>
       <c r="W29" t="n">
-        <v>3532.401631634435</v>
+        <v>3532.401631634436</v>
       </c>
       <c r="X29" t="n">
-        <v>3158.935873373355</v>
+        <v>3158.935873373356</v>
       </c>
       <c r="Y29" t="n">
-        <v>2768.796541397543</v>
+        <v>2768.796541397544</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>95.80529835927997</v>
       </c>
       <c r="J30" t="n">
-        <v>181.7852462359304</v>
+        <v>262.8962802737942</v>
       </c>
       <c r="K30" t="n">
-        <v>406.8934965666596</v>
+        <v>488.0045306045234</v>
       </c>
       <c r="L30" t="n">
-        <v>755.9018603750108</v>
+        <v>837.0128944128746</v>
       </c>
       <c r="M30" t="n">
-        <v>1182.535027450589</v>
+        <v>1263.646061488453</v>
       </c>
       <c r="N30" t="n">
-        <v>1634.868549887796</v>
+        <v>1715.97958392566</v>
       </c>
       <c r="O30" t="n">
-        <v>2026.445557192539</v>
+        <v>2107.556591230403</v>
       </c>
       <c r="P30" t="n">
-        <v>2321.387561350091</v>
+        <v>2402.498595387955</v>
       </c>
       <c r="Q30" t="n">
-        <v>2589.606876776448</v>
+        <v>2549.740317917667</v>
       </c>
       <c r="R30" t="n">
         <v>2589.606876776448</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>203.170893086425</v>
+        <v>561.6949172672325</v>
       </c>
       <c r="C31" t="n">
-        <v>195.2267517890514</v>
+        <v>392.7587343393257</v>
       </c>
       <c r="D31" t="n">
-        <v>195.2267517890514</v>
+        <v>242.64209492699</v>
       </c>
       <c r="E31" t="n">
-        <v>195.2267517890514</v>
+        <v>242.64209492699</v>
       </c>
       <c r="F31" t="n">
-        <v>195.2267517890514</v>
+        <v>242.64209492699</v>
       </c>
       <c r="G31" t="n">
-        <v>195.2267517890514</v>
+        <v>242.64209492699</v>
       </c>
       <c r="H31" t="n">
-        <v>195.2267517890514</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="I31" t="n">
         <v>95.80529835927997</v>
@@ -6654,19 +6654,19 @@
         <v>1666.809814362444</v>
       </c>
       <c r="U31" t="n">
-        <v>1377.70314620106</v>
+        <v>1554.578705551628</v>
       </c>
       <c r="V31" t="n">
-        <v>1123.018657995173</v>
+        <v>1299.894217345741</v>
       </c>
       <c r="W31" t="n">
-        <v>833.6014879582121</v>
+        <v>1010.47704730878</v>
       </c>
       <c r="X31" t="n">
-        <v>605.6119370601948</v>
+        <v>782.4874964107627</v>
       </c>
       <c r="Y31" t="n">
-        <v>384.8193579166647</v>
+        <v>561.6949172672325</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2366.1073378407</v>
+        <v>2366.107337840699</v>
       </c>
       <c r="C32" t="n">
-        <v>1999.34699635041</v>
+        <v>1999.346996350409</v>
       </c>
       <c r="D32" t="n">
-        <v>1643.283473193781</v>
+        <v>1643.283473193779</v>
       </c>
       <c r="E32" t="n">
-        <v>1259.697396045658</v>
+        <v>1259.697396045657</v>
       </c>
       <c r="F32" t="n">
-        <v>850.9136667061716</v>
+        <v>850.9136667061707</v>
       </c>
       <c r="G32" t="n">
-        <v>437.8880295163913</v>
+        <v>437.8880295163912</v>
       </c>
       <c r="H32" t="n">
         <v>140.9154985268241</v>
       </c>
       <c r="I32" t="n">
-        <v>95.13116301740607</v>
+        <v>95.13116301740605</v>
       </c>
       <c r="J32" t="n">
         <v>271.0865025882491</v>
       </c>
       <c r="K32" t="n">
-        <v>871.1067022763057</v>
+        <v>906.4404215799736</v>
       </c>
       <c r="L32" t="n">
-        <v>1711.596048164384</v>
+        <v>1692.901140153467</v>
       </c>
       <c r="M32" t="n">
-        <v>2663.408935897199</v>
+        <v>2199.695629728377</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.017698529591</v>
+        <v>2719.304392360769</v>
       </c>
       <c r="O32" t="n">
-        <v>4037.326436916241</v>
+        <v>3573.61313074742</v>
       </c>
       <c r="P32" t="n">
-        <v>4410.204076000737</v>
+        <v>4265.071490921683</v>
       </c>
       <c r="Q32" t="n">
-        <v>4642.046907486217</v>
+        <v>4707.106163160469</v>
       </c>
       <c r="R32" t="n">
-        <v>4756.558150870304</v>
+        <v>4756.558150870303</v>
       </c>
       <c r="S32" t="n">
-        <v>4644.92933522292</v>
+        <v>4644.929335222919</v>
       </c>
       <c r="T32" t="n">
         <v>4440.473663779625</v>
       </c>
       <c r="U32" t="n">
-        <v>4189.13293350479</v>
+        <v>4189.132933504789</v>
       </c>
       <c r="V32" t="n">
-        <v>3860.272221611341</v>
+        <v>3860.27222161134</v>
       </c>
       <c r="W32" t="n">
-        <v>3509.705741791348</v>
+        <v>3509.705741791347</v>
       </c>
       <c r="X32" t="n">
-        <v>3138.44215898039</v>
+        <v>3138.442158980389</v>
       </c>
       <c r="Y32" t="n">
-        <v>2750.5050024547</v>
+        <v>2750.505002454699</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>106.7724496669056</v>
       </c>
       <c r="I33" t="n">
-        <v>95.13116301740607</v>
+        <v>95.13116301740605</v>
       </c>
       <c r="J33" t="n">
-        <v>181.1111108940565</v>
+        <v>262.2221449319204</v>
       </c>
       <c r="K33" t="n">
-        <v>406.2193612247856</v>
+        <v>487.3303952626496</v>
       </c>
       <c r="L33" t="n">
-        <v>755.2277250331368</v>
+        <v>836.3387590710008</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.83848500536</v>
+        <v>1262.971926146579</v>
       </c>
       <c r="N33" t="n">
-        <v>1755.172007442568</v>
+        <v>1715.305448583787</v>
       </c>
       <c r="O33" t="n">
-        <v>2146.74901474731</v>
+        <v>2106.882455888529</v>
       </c>
       <c r="P33" t="n">
-        <v>2441.691018904863</v>
+        <v>2401.824460046082</v>
       </c>
       <c r="Q33" t="n">
-        <v>2588.932741434574</v>
+        <v>2549.066182575793</v>
       </c>
       <c r="R33" t="n">
         <v>2588.932741434574</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.9846070123343</v>
+        <v>323.8632831457147</v>
       </c>
       <c r="C34" t="n">
-        <v>553.2505995345489</v>
+        <v>323.8632831457147</v>
       </c>
       <c r="D34" t="n">
-        <v>405.3361355723346</v>
+        <v>323.8632831457147</v>
       </c>
       <c r="E34" t="n">
-        <v>405.3361355723346</v>
+        <v>239.8189350651949</v>
       </c>
       <c r="F34" t="n">
-        <v>405.3361355723346</v>
+        <v>95.13116301740605</v>
       </c>
       <c r="G34" t="n">
-        <v>239.7657841349946</v>
+        <v>95.13116301740605</v>
       </c>
       <c r="H34" t="n">
-        <v>95.13116301740607</v>
+        <v>95.13116301740605</v>
       </c>
       <c r="I34" t="n">
-        <v>95.13116301740607</v>
+        <v>95.13116301740605</v>
       </c>
       <c r="J34" t="n">
         <v>137.5830954074191</v>
@@ -6873,7 +6873,7 @@
         <v>1313.079275425557</v>
       </c>
       <c r="O34" t="n">
-        <v>1604.912847714877</v>
+        <v>1604.912847714878</v>
       </c>
       <c r="P34" t="n">
         <v>1831.41771140709</v>
@@ -6882,28 +6882,28 @@
         <v>1905.466879204218</v>
       </c>
       <c r="R34" t="n">
-        <v>1905.466879204218</v>
+        <v>1814.705069805101</v>
       </c>
       <c r="S34" t="n">
-        <v>1905.466879204218</v>
+        <v>1814.705069805101</v>
       </c>
       <c r="T34" t="n">
-        <v>1905.466879204218</v>
+        <v>1594.842862340887</v>
       </c>
       <c r="U34" t="n">
-        <v>1618.562386492955</v>
+        <v>1307.938369629624</v>
       </c>
       <c r="V34" t="n">
-        <v>1366.08007373719</v>
+        <v>1055.456056873858</v>
       </c>
       <c r="W34" t="n">
-        <v>1343.808675533757</v>
+        <v>768.2410622870191</v>
       </c>
       <c r="X34" t="n">
-        <v>1118.021300085861</v>
+        <v>542.4536868391233</v>
       </c>
       <c r="Y34" t="n">
-        <v>899.4308963924525</v>
+        <v>323.8632831457147</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2015.162935454691</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982075</v>
       </c>
       <c r="D35" t="n">
         <v>1389.138154843119</v>
@@ -6940,19 +6940,19 @@
         <v>423.7293368380542</v>
       </c>
       <c r="K35" t="n">
-        <v>781.2771235584521</v>
+        <v>738.1792973843257</v>
       </c>
       <c r="L35" t="n">
-        <v>1208.281867041585</v>
+        <v>1165.184040867458</v>
       </c>
       <c r="M35" t="n">
-        <v>1715.076356616496</v>
+        <v>1671.978530442369</v>
       </c>
       <c r="N35" t="n">
-        <v>2234.685119248888</v>
+        <v>2191.587293074761</v>
       </c>
       <c r="O35" t="n">
-        <v>3088.993857635538</v>
+        <v>2770.41313654577</v>
       </c>
       <c r="P35" t="n">
         <v>3461.871496720033</v>
@@ -6967,22 +6967,22 @@
         <v>3955.188138713195</v>
       </c>
       <c r="T35" t="n">
-        <v>3799.132009287573</v>
+        <v>3799.132009287574</v>
       </c>
       <c r="U35" t="n">
-        <v>3596.190821030413</v>
+        <v>3596.190821030414</v>
       </c>
       <c r="V35" t="n">
-        <v>3315.729651154637</v>
+        <v>3315.729651154638</v>
       </c>
       <c r="W35" t="n">
-        <v>3013.562713352318</v>
+        <v>3013.562713352319</v>
       </c>
       <c r="X35" t="n">
-        <v>2690.698672559034</v>
+        <v>2690.698672559035</v>
       </c>
       <c r="Y35" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051018</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>80.3683482468581</v>
       </c>
       <c r="J36" t="n">
-        <v>166.3482961235085</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K36" t="n">
-        <v>391.4565464542377</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L36" t="n">
-        <v>740.4649102625889</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M36" t="n">
-        <v>1167.098077338168</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N36" t="n">
-        <v>1619.431599775375</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O36" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P36" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q36" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R36" t="n">
         <v>2574.169926664026</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>754.0429662777811</v>
+        <v>754.0429662777813</v>
       </c>
       <c r="C37" t="n">
-        <v>635.7085008176693</v>
+        <v>635.7085008176695</v>
       </c>
       <c r="D37" t="n">
-        <v>536.1935788731288</v>
+        <v>536.1935788731289</v>
       </c>
       <c r="E37" t="n">
         <v>438.8822027585309</v>
@@ -7098,10 +7098,10 @@
         <v>170.2566717683931</v>
       </c>
       <c r="K37" t="n">
-        <v>415.9029817910228</v>
+        <v>415.9029817910227</v>
       </c>
       <c r="L37" t="n">
-        <v>771.9026669097096</v>
+        <v>771.9026669097095</v>
       </c>
       <c r="M37" t="n">
         <v>1154.947583309621</v>
@@ -7113,7 +7113,7 @@
         <v>1874.768379733461</v>
       </c>
       <c r="P37" t="n">
-        <v>2148.709634557196</v>
+        <v>2148.709634557195</v>
       </c>
       <c r="Q37" t="n">
         <v>2270.195193485846</v>
@@ -7140,7 +7140,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y37" t="n">
-        <v>885.0897136402257</v>
+        <v>885.0897136402258</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2015.16293545469</v>
+        <v>2015.162935454691</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982075</v>
       </c>
       <c r="D38" t="n">
-        <v>1389.138154843118</v>
+        <v>1389.138154843119</v>
       </c>
       <c r="E38" t="n">
         <v>1053.95161971267</v>
       </c>
       <c r="F38" t="n">
-        <v>693.5674323908573</v>
+        <v>693.5674323908574</v>
       </c>
       <c r="G38" t="n">
         <v>328.9413372187516</v>
@@ -7177,22 +7177,22 @@
         <v>423.7293368380542</v>
       </c>
       <c r="K38" t="n">
-        <v>738.1792973843257</v>
+        <v>839.6885819188021</v>
       </c>
       <c r="L38" t="n">
-        <v>1165.184040867458</v>
+        <v>1266.693325401935</v>
       </c>
       <c r="M38" t="n">
-        <v>2116.996928600273</v>
+        <v>1773.487814976846</v>
       </c>
       <c r="N38" t="n">
-        <v>2821.869139452311</v>
+        <v>2293.096577609238</v>
       </c>
       <c r="O38" t="n">
-        <v>3299.185698388843</v>
+        <v>2770.41313654577</v>
       </c>
       <c r="P38" t="n">
-        <v>3672.063337473339</v>
+        <v>3461.871496720033</v>
       </c>
       <c r="Q38" t="n">
         <v>3903.906168958819</v>
@@ -7201,25 +7201,25 @@
         <v>4018.417412342905</v>
       </c>
       <c r="S38" t="n">
-        <v>3955.188138713195</v>
+        <v>3955.188138713196</v>
       </c>
       <c r="T38" t="n">
-        <v>3799.132009287574</v>
+        <v>3799.132009287573</v>
       </c>
       <c r="U38" t="n">
         <v>3596.190821030413</v>
       </c>
       <c r="V38" t="n">
-        <v>3315.729651154637</v>
+        <v>3315.729651154638</v>
       </c>
       <c r="W38" t="n">
-        <v>3013.562713352318</v>
+        <v>3013.562713352319</v>
       </c>
       <c r="X38" t="n">
         <v>2690.698672559034</v>
       </c>
       <c r="Y38" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051018</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>80.3683482468581</v>
       </c>
       <c r="J39" t="n">
-        <v>166.3482961235085</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K39" t="n">
-        <v>391.4565464542377</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L39" t="n">
-        <v>740.4649102625889</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M39" t="n">
-        <v>1167.098077338168</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N39" t="n">
-        <v>1619.431599775375</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O39" t="n">
-        <v>2011.008607080117</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P39" t="n">
-        <v>2305.95061123767</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q39" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R39" t="n">
         <v>2574.169926664026</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2502.265185134841</v>
+        <v>754.0429662777813</v>
       </c>
       <c r="C40" t="n">
-        <v>2383.930719674729</v>
+        <v>635.7085008176695</v>
       </c>
       <c r="D40" t="n">
-        <v>2284.415797730188</v>
+        <v>536.1935788731289</v>
       </c>
       <c r="E40" t="n">
-        <v>2187.10442161559</v>
+        <v>438.8822027585309</v>
       </c>
       <c r="F40" t="n">
-        <v>2090.816191585475</v>
+        <v>342.5939727284156</v>
       </c>
       <c r="G40" t="n">
-        <v>1973.645382165809</v>
+        <v>225.4231633087493</v>
       </c>
       <c r="H40" t="n">
-        <v>1877.410303065894</v>
+        <v>129.1880842088344</v>
       </c>
       <c r="I40" t="n">
-        <v>1828.590567103917</v>
+        <v>80.3683482468581</v>
       </c>
       <c r="J40" t="n">
-        <v>1918.478890625453</v>
+        <v>170.2566717683928</v>
       </c>
       <c r="K40" t="n">
-        <v>2164.125200648082</v>
+        <v>415.902981791023</v>
       </c>
       <c r="L40" t="n">
-        <v>2520.124885766769</v>
+        <v>771.9026669097098</v>
       </c>
       <c r="M40" t="n">
-        <v>2903.169802166681</v>
+        <v>1154.947583309621</v>
       </c>
       <c r="N40" t="n">
-        <v>3283.720635169679</v>
+        <v>1535.498416312619</v>
       </c>
       <c r="O40" t="n">
-        <v>3622.990598590521</v>
+        <v>1874.768379733461</v>
       </c>
       <c r="P40" t="n">
-        <v>3896.931853414255</v>
+        <v>2148.709634557196</v>
       </c>
       <c r="Q40" t="n">
-        <v>4018.417412342905</v>
+        <v>2270.195193485846</v>
       </c>
       <c r="R40" t="n">
-        <v>3976.055144961461</v>
+        <v>2227.832926104402</v>
       </c>
       <c r="S40" t="n">
-        <v>3833.756467050629</v>
+        <v>2085.53424819357</v>
       </c>
       <c r="T40" t="n">
-        <v>3662.293801604089</v>
+        <v>1914.071582747029</v>
       </c>
       <c r="U40" t="n">
-        <v>3423.7888509105</v>
+        <v>1675.56663205344</v>
       </c>
       <c r="V40" t="n">
-        <v>3219.706080172408</v>
+        <v>1471.483861315348</v>
       </c>
       <c r="W40" t="n">
-        <v>2980.890627603242</v>
+        <v>1232.668408746183</v>
       </c>
       <c r="X40" t="n">
-        <v>2803.50279417302</v>
+        <v>1055.280575315961</v>
       </c>
       <c r="Y40" t="n">
-        <v>2633.311932497285</v>
+        <v>885.0897136402258</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2015.162935454691</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982075</v>
       </c>
       <c r="D41" t="n">
-        <v>1389.138154843119</v>
+        <v>1389.13815484312</v>
       </c>
       <c r="E41" t="n">
         <v>1053.95161971267</v>
       </c>
       <c r="F41" t="n">
-        <v>693.5674323908574</v>
+        <v>693.5674323908579</v>
       </c>
       <c r="G41" t="n">
         <v>328.9413372187516</v>
@@ -7411,52 +7411,52 @@
         <v>80.3683482468581</v>
       </c>
       <c r="J41" t="n">
-        <v>256.3236878177012</v>
+        <v>423.7293368380542</v>
       </c>
       <c r="K41" t="n">
-        <v>570.7736483639726</v>
+        <v>923.4427456039716</v>
       </c>
       <c r="L41" t="n">
-        <v>997.7783918471055</v>
+        <v>1350.447489087104</v>
       </c>
       <c r="M41" t="n">
-        <v>1949.59127957992</v>
+        <v>2302.260376819919</v>
       </c>
       <c r="N41" t="n">
-        <v>2886.928395126564</v>
+        <v>2821.869139452311</v>
       </c>
       <c r="O41" t="n">
-        <v>3364.244954063096</v>
+        <v>3299.185698388843</v>
       </c>
       <c r="P41" t="n">
-        <v>3737.122593147591</v>
+        <v>3672.063337473339</v>
       </c>
       <c r="Q41" t="n">
-        <v>3968.965424633072</v>
+        <v>3903.906168958819</v>
       </c>
       <c r="R41" t="n">
         <v>4018.417412342905</v>
       </c>
       <c r="S41" t="n">
-        <v>3955.188138713195</v>
+        <v>3955.188138713196</v>
       </c>
       <c r="T41" t="n">
         <v>3799.132009287574</v>
       </c>
       <c r="U41" t="n">
-        <v>3596.190821030413</v>
+        <v>3596.190821030414</v>
       </c>
       <c r="V41" t="n">
-        <v>3315.729651154638</v>
+        <v>3315.729651154639</v>
       </c>
       <c r="W41" t="n">
-        <v>3013.562713352319</v>
+        <v>3013.56271335232</v>
       </c>
       <c r="X41" t="n">
-        <v>2690.698672559034</v>
+        <v>2690.698672559035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051018</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>80.3683482468581</v>
       </c>
       <c r="J42" t="n">
-        <v>287.3258890201537</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K42" t="n">
-        <v>512.4341393508829</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L42" t="n">
-        <v>861.4425031592341</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.075670234813</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.40919267202</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O42" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q42" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R42" t="n">
         <v>2574.169926664026</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>754.042966277781</v>
+        <v>754.0429662777817</v>
       </c>
       <c r="C43" t="n">
-        <v>635.7085008176692</v>
+        <v>635.7085008176699</v>
       </c>
       <c r="D43" t="n">
-        <v>536.1935788731287</v>
+        <v>536.1935788731294</v>
       </c>
       <c r="E43" t="n">
-        <v>438.8822027585308</v>
+        <v>438.8822027585314</v>
       </c>
       <c r="F43" t="n">
-        <v>342.5939727284156</v>
+        <v>342.5939727284161</v>
       </c>
       <c r="G43" t="n">
-        <v>225.4231633087492</v>
+        <v>225.4231633087498</v>
       </c>
       <c r="H43" t="n">
         <v>129.1880842088344</v>
@@ -7599,13 +7599,13 @@
         <v>2085.53424819357</v>
       </c>
       <c r="T43" t="n">
-        <v>1914.071582747029</v>
+        <v>1914.07158274703</v>
       </c>
       <c r="U43" t="n">
-        <v>1675.56663205344</v>
+        <v>1675.566632053441</v>
       </c>
       <c r="V43" t="n">
-        <v>1471.483861315348</v>
+        <v>1471.483861315349</v>
       </c>
       <c r="W43" t="n">
         <v>1232.668408746183</v>
@@ -7614,7 +7614,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y43" t="n">
-        <v>885.0897136402256</v>
+        <v>885.0897136402263</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>423.7293368380542</v>
       </c>
       <c r="K44" t="n">
-        <v>738.1792973843257</v>
+        <v>839.6885819188021</v>
       </c>
       <c r="L44" t="n">
         <v>1266.693325401935</v>
@@ -7727,28 +7727,28 @@
         <v>80.3683482468581</v>
       </c>
       <c r="J45" t="n">
-        <v>166.3482961235085</v>
+        <v>247.4593301613727</v>
       </c>
       <c r="K45" t="n">
-        <v>512.4341393508829</v>
+        <v>472.5675804921019</v>
       </c>
       <c r="L45" t="n">
-        <v>861.4425031592341</v>
+        <v>821.5759443004531</v>
       </c>
       <c r="M45" t="n">
-        <v>1288.075670234813</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.40919267202</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O45" t="n">
-        <v>2131.986199976762</v>
+        <v>2092.119641117981</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q45" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R45" t="n">
         <v>2574.169926664026</v>
@@ -7794,13 +7794,13 @@
         <v>438.8822027585314</v>
       </c>
       <c r="F46" t="n">
-        <v>342.5939727284162</v>
+        <v>342.5939727284161</v>
       </c>
       <c r="G46" t="n">
-        <v>225.4231633087499</v>
+        <v>225.4231633087498</v>
       </c>
       <c r="H46" t="n">
-        <v>129.1880842088351</v>
+        <v>129.1880842088349</v>
       </c>
       <c r="I46" t="n">
         <v>80.3683482468581</v>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>242.6424607116987</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M2" t="n">
-        <v>236.944458939016</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
         <v>238.109041496981</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>144.4396646861023</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>145.4304255215856</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M3" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N3" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8142,10 +8142,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M4" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N4" t="n">
         <v>134.5615902069446</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.965896786692</v>
+        <v>226.6880767567238</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
-        <v>236.69643713343</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
         <v>238.109041496981</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
         <v>149.0100796637298</v>
@@ -8309,10 +8309,10 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>149.1944701561877</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8379,10 +8379,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M7" t="n">
-        <v>145.5240096593483</v>
+        <v>145.8018296893165</v>
       </c>
       <c r="N7" t="n">
         <v>134.5615902069446</v>
@@ -8455,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
         <v>244.097508686872</v>
@@ -8537,10 +8537,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
         <v>146.0261571736144</v>
@@ -8549,10 +8549,10 @@
         <v>157.8989819595795</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8622,10 +8622,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N10" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>102.5346308429073</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>72.99996890615319</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>122.1995887844901</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>102.5346308429073</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>421.947831226517</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>122.19958878449</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>434.114440307365</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>252.8512160544445</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>122.1995887844901</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>102.5346308429073</v>
       </c>
       <c r="P20" t="n">
-        <v>7.283549033171028</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>122.1995887844899</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>421.947831226517</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>102.5346308429055</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>122.1995887844901</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>9.192050262974647</v>
+        <v>68.12430120008395</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>122.1995887844897</v>
+        <v>81.93033741198369</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>161.6401031793697</v>
       </c>
       <c r="O29" t="n">
-        <v>330.9907584344575</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>81.93033741198369</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.1995887844899</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>288.4547870119042</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>363.0868435256164</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.9303374119838</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>122.1995887844898</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>43.53315775164293</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,10 +10600,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>102.5346308429055</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>122.1995887844901</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,25 +10825,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>102.5346308429055</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>187.1347961814605</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.1995887844899</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>187.1347961814606</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>421.947831226517</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>122.1995887844901</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>102.5346308429055</v>
       </c>
       <c r="L44" t="n">
-        <v>102.5346308429055</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.93033741198403</v>
       </c>
       <c r="K45" t="n">
-        <v>122.1995887844901</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.252418438814857</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>145.3684286020329</v>
       </c>
       <c r="I28" t="n">
-        <v>98.42723889547374</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>209.1124574690059</v>
       </c>
       <c r="U28" t="n">
-        <v>200.8378573013353</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>159.3821212142281</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24855,10 +24855,10 @@
         <v>166.0948016185868</v>
       </c>
       <c r="H31" t="n">
-        <v>145.3684286020329</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.42723889547374</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>175.106803757062</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.651826486317</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>165.0666674030076</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.4353193225921</v>
       </c>
       <c r="E34" t="n">
-        <v>144.2538089509489</v>
+        <v>61.0499043512343</v>
       </c>
       <c r="F34" t="n">
-        <v>143.240894327311</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9146479229666</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>143.1882749064126</v>
       </c>
       <c r="I34" t="n">
-        <v>96.24708519985349</v>
+        <v>96.24708519985346</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.85419130512655</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>188.7912377292205</v>
       </c>
       <c r="T34" t="n">
-        <v>217.6635853895721</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2941604195722</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646419.3386978678</v>
+        <v>646419.3386978681</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646491.7316020874</v>
+        <v>646491.7316020873</v>
       </c>
     </row>
     <row r="13">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>820371.0051991191</v>
+        <v>820371.0051991189</v>
       </c>
       <c r="C2" t="n">
-        <v>820371.0051991189</v>
+        <v>820371.0051991188</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
-        <v>821041.7698642821</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="F2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.769864284</v>
+        <v>821041.7698642841</v>
       </c>
       <c r="H2" t="n">
         <v>821041.769864282</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="J2" t="n">
         <v>792378.0521471279</v>
@@ -26343,16 +26343,16 @@
         <v>792378.0521471278</v>
       </c>
       <c r="L2" t="n">
-        <v>793625.4907445642</v>
+        <v>793625.4907445639</v>
       </c>
       <c r="M2" t="n">
+        <v>821041.769864284</v>
+      </c>
+      <c r="N2" t="n">
         <v>821041.7698642836</v>
       </c>
-      <c r="N2" t="n">
-        <v>821041.7698642822</v>
-      </c>
       <c r="O2" t="n">
-        <v>821041.769864282</v>
+        <v>821041.7698642819</v>
       </c>
       <c r="P2" t="n">
         <v>821041.7698642822</v>
@@ -26374,7 +26374,7 @@
         <v>2617.583265578577</v>
       </c>
       <c r="E3" t="n">
-        <v>1180251.966822196</v>
+        <v>1180251.966822197</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>52286.39330222565</v>
+        <v>52286.39330222568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1744.122956496188</v>
+        <v>1744.122956496192</v>
       </c>
       <c r="M3" t="n">
-        <v>238883.4509336558</v>
+        <v>238883.4509336556</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>414471.3742669506</v>
       </c>
       <c r="D4" t="n">
-        <v>413719.6142666657</v>
+        <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>83576.52850010818</v>
+        <v>83576.52850010824</v>
       </c>
       <c r="F4" t="n">
-        <v>83576.52850010819</v>
+        <v>83576.52850010822</v>
       </c>
       <c r="G4" t="n">
-        <v>83576.52850010819</v>
+        <v>83576.52850010822</v>
       </c>
       <c r="H4" t="n">
-        <v>83576.52850010819</v>
+        <v>83576.52850010822</v>
       </c>
       <c r="I4" t="n">
         <v>83576.52850010819</v>
       </c>
       <c r="J4" t="n">
-        <v>52927.39023330885</v>
+        <v>52927.39023330882</v>
       </c>
       <c r="K4" t="n">
-        <v>52927.39023330885</v>
+        <v>52927.39023330881</v>
       </c>
       <c r="L4" t="n">
         <v>54263.36524810278</v>
       </c>
       <c r="M4" t="n">
-        <v>83576.52850010821</v>
+        <v>83576.52850010818</v>
       </c>
       <c r="N4" t="n">
         <v>83576.52850010819</v>
       </c>
       <c r="O4" t="n">
-        <v>83576.52850010824</v>
+        <v>83576.52850010822</v>
       </c>
       <c r="P4" t="n">
-        <v>83576.52850010822</v>
+        <v>83576.52850010821</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>88214.50517266036</v>
+        <v>88214.50517266039</v>
       </c>
       <c r="F5" t="n">
-        <v>88214.50517266036</v>
+        <v>88214.50517266039</v>
       </c>
       <c r="G5" t="n">
-        <v>88214.50517266036</v>
+        <v>88214.50517266037</v>
       </c>
       <c r="H5" t="n">
-        <v>88214.50517266036</v>
+        <v>88214.50517266039</v>
       </c>
       <c r="I5" t="n">
         <v>88214.50517266036</v>
@@ -26499,13 +26499,13 @@
         <v>95735.09183015891</v>
       </c>
       <c r="L5" t="n">
-        <v>95406.03231137183</v>
+        <v>95406.03231137182</v>
       </c>
       <c r="M5" t="n">
-        <v>88214.50517266037</v>
+        <v>88214.50517266036</v>
       </c>
       <c r="N5" t="n">
-        <v>88214.50517266037</v>
+        <v>88214.50517266036</v>
       </c>
       <c r="O5" t="n">
         <v>88214.50517266037</v>
@@ -26521,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369549.6462739729</v>
+        <v>369532.8771573436</v>
       </c>
       <c r="C6" t="n">
-        <v>371853.9673510722</v>
+        <v>371837.198234443</v>
       </c>
       <c r="D6" t="n">
-        <v>370146.5658911192</v>
+        <v>370146.5658911189</v>
       </c>
       <c r="E6" t="n">
-        <v>-531001.2306306829</v>
+        <v>-531001.2306306815</v>
       </c>
       <c r="F6" t="n">
-        <v>649250.7361915148</v>
+        <v>649250.7361915149</v>
       </c>
       <c r="G6" t="n">
-        <v>649250.7361915155</v>
+        <v>649250.7361915156</v>
       </c>
       <c r="H6" t="n">
         <v>649250.7361915135</v>
       </c>
       <c r="I6" t="n">
-        <v>649250.736191515</v>
+        <v>649250.7361915149</v>
       </c>
       <c r="J6" t="n">
-        <v>591429.1767814344</v>
+        <v>590712.5838385057</v>
       </c>
       <c r="K6" t="n">
-        <v>643715.57008366</v>
+        <v>642998.9771407312</v>
       </c>
       <c r="L6" t="n">
-        <v>642211.9702285933</v>
+        <v>641526.5632506001</v>
       </c>
       <c r="M6" t="n">
-        <v>410367.2852578592</v>
+        <v>410367.2852578599</v>
       </c>
       <c r="N6" t="n">
-        <v>649250.7361915137</v>
+        <v>649250.7361915151</v>
       </c>
       <c r="O6" t="n">
-        <v>649250.7361915134</v>
+        <v>649250.7361915132</v>
       </c>
       <c r="P6" t="n">
         <v>649250.7361915137</v>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>50.09570029311718</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50.09570029311718</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50.09570029311715</v>
+      </c>
+      <c r="H2" t="n">
         <v>50.09570029311716</v>
-      </c>
-      <c r="F2" t="n">
-        <v>50.09570029311716</v>
-      </c>
-      <c r="G2" t="n">
-        <v>50.09570029311718</v>
-      </c>
-      <c r="H2" t="n">
-        <v>50.09570029311718</v>
       </c>
       <c r="I2" t="n">
         <v>50.09570029311718</v>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="M2" t="n">
+        <v>50.09570029311717</v>
+      </c>
+      <c r="N2" t="n">
+        <v>50.09570029311717</v>
+      </c>
+      <c r="O2" t="n">
         <v>50.09570029311719</v>
       </c>
-      <c r="N2" t="n">
-        <v>50.0957002931172</v>
-      </c>
-      <c r="O2" t="n">
-        <v>50.0957002931172</v>
-      </c>
       <c r="P2" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
     </row>
     <row r="3">
@@ -26798,16 +26798,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>1004.604353085726</v>
+        <v>1004.604353085727</v>
       </c>
       <c r="F4" t="n">
-        <v>1004.604353085726</v>
+        <v>1004.604353085727</v>
       </c>
       <c r="G4" t="n">
-        <v>1004.604353085726</v>
+        <v>1004.604353085727</v>
       </c>
       <c r="H4" t="n">
-        <v>1004.604353085726</v>
+        <v>1004.604353085727</v>
       </c>
       <c r="I4" t="n">
         <v>1004.604353085726</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620235</v>
+        <v>2.18015369562024</v>
       </c>
       <c r="M2" t="n">
-        <v>47.91554659749696</v>
+        <v>47.9155465974969</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>989.3016155705911</v>
+        <v>989.3016155705916</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>199.8379221469846</v>
+        <v>199.8379221469847</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>804.7664309387417</v>
+        <v>804.7664309387411</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>989.3016155705911</v>
+        <v>989.3016155705916</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>348.6266205313835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,7 +27423,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27432,7 +27432,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>216.2198038224199</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27472,13 +27472,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>130.4674714214992</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>164.8071253621264</v>
+        <v>166.3733413407963</v>
       </c>
       <c r="T3" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>220.6315523179333</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>138.5450022812198</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>161.9345582691593</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27593,7 +27593,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>218.8336096473257</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.5282322627954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>359.2164706817081</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>203.5998438286945</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>161.2233538868258</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D6" t="n">
-        <v>141.3886444753393</v>
+        <v>140.5690198229273</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27715,10 +27715,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C7" t="n">
-        <v>163.9118407444349</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>283.1880179823981</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="8">
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>134.6010260184174</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>357.8164569162593</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.9352011409185</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27943,13 +27943,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>132.3371525163108</v>
+        <v>129.7664748782488</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>74.09389533628003</v>
@@ -27982,13 +27982,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>158.9511112267647</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.3799582621693</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>137.8582625499879</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28037,7 +28037,7 @@
         <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
-        <v>11.51228135765841</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
-        <v>161.9906538620344</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="C11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="D11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="E11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="F11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="G11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="H11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="I11" t="n">
         <v>47.50664584994411</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="T11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="U11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="V11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="W11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="X11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="C13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="D13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="E13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="F13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="G13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="H13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="I13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="J13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="K13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="L13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="M13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="N13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="O13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="P13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="R13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="S13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="T13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="U13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="V13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="W13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="X13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="C14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="D14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="E14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="F14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="G14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="H14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="I14" t="n">
         <v>47.50664584994411</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="T14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="U14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="V14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="W14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="X14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="C16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="D16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="E16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="F16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="G16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="H16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="I16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="J16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="K16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="L16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="M16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311698</v>
       </c>
       <c r="N16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="O16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="P16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="R16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="S16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="T16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="U16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="V16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="W16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="X16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.09570029311716</v>
+        <v>50.09570029311718</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="C17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="D17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="E17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="F17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="G17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="H17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="I17" t="n">
         <v>47.50664584994411</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="T17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="U17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="V17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="W17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="X17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="C19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="D19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="E19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="F19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="G19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="H19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="I19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="J19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="K19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="L19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="M19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="N19" t="n">
-        <v>50.09570029311709</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="O19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="P19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="R19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="S19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="T19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="U19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="V19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="W19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="X19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311715</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="C20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="D20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="E20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="F20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="G20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="H20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="I20" t="n">
         <v>47.50664584994411</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="T20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="U20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="V20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="W20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="X20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="C22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="D22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="E22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="F22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="G22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="H22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="I22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="J22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="K22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="L22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="M22" t="n">
-        <v>50.09570029311709</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="N22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="O22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="P22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="R22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="S22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="T22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="U22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="V22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="W22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="X22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.09570029311718</v>
+        <v>50.09570029311716</v>
       </c>
     </row>
     <row r="23">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="C32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="D32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="E32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="F32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="G32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="H32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="I32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="U32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="V32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="W32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="X32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="C34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="D34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="E34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="F34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="G34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="H34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="I34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="J34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="K34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="L34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="M34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="N34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="O34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="P34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="R34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="S34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="T34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="U34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="V34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="W34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="X34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.180153695620235</v>
+        <v>2.180153695620269</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="C35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="D35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="E35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="F35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="G35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="H35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="I35" t="n">
         <v>47.50664584994411</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="T35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="U35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="V35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="W35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="X35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="Y35" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="C37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="D37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="E37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="F37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="G37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="H37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="I37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="J37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="K37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="L37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311709</v>
       </c>
       <c r="M37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="N37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="O37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="P37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="R37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="S37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="T37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="U37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="V37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="W37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="X37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311717</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="C38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="D38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="E38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="F38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="G38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="H38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="I38" t="n">
         <v>47.50664584994411</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="T38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="U38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="V38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="W38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="X38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="Y38" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="C40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="D40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="E40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="F40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="G40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="H40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="I40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="J40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="K40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="L40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="M40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="N40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="O40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="P40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.09570029311649</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="R40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="S40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="T40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="U40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="V40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="W40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="X40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
       <c r="Y40" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311717</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="C41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="D41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="E41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="F41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="G41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="H41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="I41" t="n">
         <v>47.50664584994411</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="T41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="U41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="V41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="W41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="X41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="Y41" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="C43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="D43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="E43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="F43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="G43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="H43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="I43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="J43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="K43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="L43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="M43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="N43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="O43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="P43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="R43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="S43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="T43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="U43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="V43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="W43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="X43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="C44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="D44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="E44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="F44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="G44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="H44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="I44" t="n">
         <v>47.50664584994411</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="T44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="U44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="V44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="W44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="X44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="Y44" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="C46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="D46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="E46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="F46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="G46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="H46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="I46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="J46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="K46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="L46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="M46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="N46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="O46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="P46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="R46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="S46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="T46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="U46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="V46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="W46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="X46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
       <c r="Y46" t="n">
-        <v>50.0957002931172</v>
+        <v>50.09570029311719</v>
       </c>
     </row>
   </sheetData>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M2" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>6.876045741711437</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,10 +34862,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="N4" t="n">
         <v>6.876045741711437</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P5" t="n">
         <v>6.876045741711437</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
@@ -35029,10 +35029,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,10 +35099,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="M7" t="n">
-        <v>6.598225711743296</v>
       </c>
       <c r="N7" t="n">
         <v>6.876045741711437</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>14.68444509028111</v>
@@ -35257,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
         <v>14.68444509028111</v>
@@ -35269,10 +35269,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35342,10 +35342,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N10" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O10" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K11" t="n">
-        <v>317.6262227740115</v>
+        <v>420.1608536169189</v>
       </c>
       <c r="L11" t="n">
-        <v>848.9791372606857</v>
+        <v>431.3179227102352</v>
       </c>
       <c r="M11" t="n">
         <v>511.913625833243</v>
       </c>
       <c r="N11" t="n">
-        <v>597.8573048984682</v>
+        <v>524.857335992315</v>
       </c>
       <c r="O11" t="n">
-        <v>862.938119582475</v>
+        <v>482.1379383197296</v>
       </c>
       <c r="P11" t="n">
-        <v>376.6440798833286</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q11" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R11" t="n">
-        <v>49.95150273720589</v>
+        <v>115.6679226101883</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K12" t="n">
         <v>227.3820710411406</v>
@@ -35503,7 +35503,7 @@
         <v>456.902547916371</v>
       </c>
       <c r="O12" t="n">
-        <v>517.7319193953409</v>
+        <v>395.5323306108509</v>
       </c>
       <c r="P12" t="n">
         <v>297.9212163207602</v>
@@ -35512,7 +35512,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.79628638538885</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K13" t="n">
-        <v>248.1275858814441</v>
+        <v>248.1275858814442</v>
       </c>
       <c r="L13" t="n">
-        <v>359.5956415340272</v>
+        <v>359.5956415340271</v>
       </c>
       <c r="M13" t="n">
         <v>386.9140569696073</v>
@@ -35585,7 +35585,7 @@
         <v>342.6969327483256</v>
       </c>
       <c r="P13" t="n">
-        <v>276.7083382057921</v>
+        <v>276.7083382057922</v>
       </c>
       <c r="Q13" t="n">
         <v>122.7126857865157</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K14" t="n">
-        <v>317.6262227740115</v>
+        <v>420.1608536169189</v>
       </c>
       <c r="L14" t="n">
         <v>431.3179227102352</v>
       </c>
       <c r="M14" t="n">
-        <v>961.4271593260755</v>
+        <v>511.913625833243</v>
       </c>
       <c r="N14" t="n">
-        <v>946.805167218832</v>
+        <v>524.857335992315</v>
       </c>
       <c r="O14" t="n">
         <v>482.1379383197296</v>
       </c>
       <c r="P14" t="n">
-        <v>376.6440798833286</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q14" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R14" t="n">
-        <v>49.95150273720589</v>
+        <v>115.6679226101883</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K15" t="n">
         <v>227.3820710411406</v>
@@ -35734,7 +35734,7 @@
         <v>352.5337008165163</v>
       </c>
       <c r="M15" t="n">
-        <v>553.1421817901249</v>
+        <v>430.9425930056349</v>
       </c>
       <c r="N15" t="n">
         <v>456.902547916371</v>
@@ -35749,7 +35749,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.79628638538885</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K16" t="n">
-        <v>248.1275858814441</v>
+        <v>248.1275858814442</v>
       </c>
       <c r="L16" t="n">
-        <v>359.5956415340271</v>
+        <v>359.5956415340272</v>
       </c>
       <c r="M16" t="n">
-        <v>386.9140569696073</v>
+        <v>386.9140569696071</v>
       </c>
       <c r="N16" t="n">
         <v>384.3947808111093</v>
@@ -35822,7 +35822,7 @@
         <v>342.6969327483256</v>
       </c>
       <c r="P16" t="n">
-        <v>276.7083382057921</v>
+        <v>276.7083382057922</v>
       </c>
       <c r="Q16" t="n">
         <v>122.7126857865157</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K17" t="n">
         <v>317.6262227740115</v>
@@ -35892,16 +35892,16 @@
         <v>431.3179227102352</v>
       </c>
       <c r="M17" t="n">
-        <v>946.0280661406081</v>
+        <v>961.4271593260755</v>
       </c>
       <c r="N17" t="n">
-        <v>962.2042604042992</v>
+        <v>524.857335992315</v>
       </c>
       <c r="O17" t="n">
         <v>482.1379383197296</v>
       </c>
       <c r="P17" t="n">
-        <v>376.6440798833286</v>
+        <v>629.4952959377731</v>
       </c>
       <c r="Q17" t="n">
         <v>234.1846782681617</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>209.0480209831269</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K18" t="n">
         <v>227.3820710411406</v>
@@ -35986,7 +35986,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.79628638538887</v>
+        <v>90.79628638538884</v>
       </c>
       <c r="K19" t="n">
-        <v>248.1275858814442</v>
+        <v>248.1275858814441</v>
       </c>
       <c r="L19" t="n">
-        <v>359.5956415340272</v>
+        <v>359.5956415340271</v>
       </c>
       <c r="M19" t="n">
         <v>386.9140569696073</v>
       </c>
       <c r="N19" t="n">
-        <v>384.3947808111092</v>
+        <v>384.3947808111093</v>
       </c>
       <c r="O19" t="n">
         <v>342.6969327483256</v>
       </c>
       <c r="P19" t="n">
-        <v>276.7083382057922</v>
+        <v>276.7083382057921</v>
       </c>
       <c r="Q19" t="n">
         <v>122.7126857865157</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K20" t="n">
         <v>317.6262227740115</v>
       </c>
       <c r="L20" t="n">
-        <v>848.9791372606857</v>
+        <v>431.3179227102352</v>
       </c>
       <c r="M20" t="n">
         <v>511.913625833243</v>
@@ -36135,13 +36135,13 @@
         <v>524.857335992315</v>
       </c>
       <c r="O20" t="n">
-        <v>862.938119582475</v>
+        <v>584.6725691626369</v>
       </c>
       <c r="P20" t="n">
-        <v>383.9276289164997</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q20" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R20" t="n">
         <v>115.6679226101883</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K21" t="n">
         <v>227.3820710411406</v>
@@ -36211,7 +36211,7 @@
         <v>430.9425930056349</v>
       </c>
       <c r="N21" t="n">
-        <v>579.1021367008609</v>
+        <v>456.902547916371</v>
       </c>
       <c r="O21" t="n">
         <v>395.5323306108509</v>
@@ -36223,7 +36223,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.79628638538887</v>
+        <v>90.79628638538885</v>
       </c>
       <c r="K22" t="n">
-        <v>248.1275858814442</v>
+        <v>248.1275858814441</v>
       </c>
       <c r="L22" t="n">
         <v>359.5956415340272</v>
       </c>
       <c r="M22" t="n">
-        <v>386.9140569696072</v>
+        <v>386.9140569696073</v>
       </c>
       <c r="N22" t="n">
         <v>384.3947808111093</v>
@@ -36296,7 +36296,7 @@
         <v>342.6969327483256</v>
       </c>
       <c r="P22" t="n">
-        <v>276.7083382057922</v>
+        <v>276.7083382057921</v>
       </c>
       <c r="Q22" t="n">
         <v>122.7126857865157</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K23" t="n">
         <v>317.6262227740115</v>
@@ -36366,22 +36366,22 @@
         <v>431.3179227102352</v>
       </c>
       <c r="M23" t="n">
-        <v>961.4271593260755</v>
+        <v>511.913625833243</v>
       </c>
       <c r="N23" t="n">
-        <v>946.805167218832</v>
+        <v>524.857335992315</v>
       </c>
       <c r="O23" t="n">
-        <v>482.1379383197296</v>
+        <v>584.6725691626351</v>
       </c>
       <c r="P23" t="n">
-        <v>376.6440798833286</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q23" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R23" t="n">
-        <v>49.95150273720589</v>
+        <v>115.6679226101883</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>209.0480209831269</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K24" t="n">
         <v>227.3820710411406</v>
@@ -36460,7 +36460,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K26" t="n">
-        <v>326.8182730369862</v>
+        <v>385.7505239740955</v>
       </c>
       <c r="L26" t="n">
         <v>848.9791372606857</v>
       </c>
       <c r="M26" t="n">
-        <v>961.4271593260755</v>
+        <v>511.913625833243</v>
       </c>
       <c r="N26" t="n">
-        <v>962.2042604042992</v>
+        <v>524.857335992315</v>
       </c>
       <c r="O26" t="n">
-        <v>482.1379383197296</v>
+        <v>862.938119582475</v>
       </c>
       <c r="P26" t="n">
         <v>698.4427880548112</v>
       </c>
       <c r="Q26" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R26" t="n">
-        <v>49.95150273720589</v>
+        <v>115.6679226101883</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>209.0480209831265</v>
+        <v>168.7787696106205</v>
       </c>
       <c r="K27" t="n">
         <v>227.3820710411406</v>
@@ -36697,7 +36697,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K29" t="n">
-        <v>317.6262227740115</v>
+        <v>641.7716353451763</v>
       </c>
       <c r="L29" t="n">
-        <v>848.9791372606857</v>
+        <v>431.3179227102352</v>
       </c>
       <c r="M29" t="n">
-        <v>961.4271593260755</v>
+        <v>511.913625833243</v>
       </c>
       <c r="N29" t="n">
-        <v>962.2042604042992</v>
+        <v>686.4974391716847</v>
       </c>
       <c r="O29" t="n">
-        <v>813.1286967541871</v>
+        <v>862.938119582475</v>
       </c>
       <c r="P29" t="n">
-        <v>376.6440798833286</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q29" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R29" t="n">
-        <v>49.95150273720589</v>
+        <v>115.6679226101883</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106205</v>
       </c>
       <c r="K30" t="n">
         <v>227.3820710411406</v>
@@ -36931,10 +36931,10 @@
         <v>297.9212163207602</v>
       </c>
       <c r="Q30" t="n">
-        <v>270.9286014407641</v>
+        <v>148.7290126562742</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>177.7326662331748</v>
       </c>
       <c r="K32" t="n">
-        <v>606.0810097859157</v>
+        <v>641.7716353451763</v>
       </c>
       <c r="L32" t="n">
-        <v>848.9791372606857</v>
+        <v>794.4047662358516</v>
       </c>
       <c r="M32" t="n">
-        <v>961.4271593260755</v>
+        <v>511.913625833243</v>
       </c>
       <c r="N32" t="n">
         <v>524.857335992315</v>
@@ -37086,13 +37086,13 @@
         <v>862.938119582475</v>
       </c>
       <c r="P32" t="n">
-        <v>376.6440798833286</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q32" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R32" t="n">
-        <v>115.6679226101883</v>
+        <v>49.95150273720589</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106206</v>
       </c>
       <c r="K33" t="n">
         <v>227.3820710411406</v>
@@ -37156,7 +37156,7 @@
         <v>352.5337008165163</v>
       </c>
       <c r="M33" t="n">
-        <v>553.1421817901247</v>
+        <v>430.9425930056349</v>
       </c>
       <c r="N33" t="n">
         <v>456.902547916371</v>
@@ -37171,7 +37171,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.88073978789193</v>
+        <v>42.88073978789195</v>
       </c>
       <c r="K34" t="n">
-        <v>200.2120392839472</v>
+        <v>200.2120392839473</v>
       </c>
       <c r="L34" t="n">
         <v>311.6800949365302</v>
       </c>
       <c r="M34" t="n">
-        <v>338.9985103721103</v>
+        <v>338.9985103721104</v>
       </c>
       <c r="N34" t="n">
         <v>336.4792342136124</v>
@@ -37244,10 +37244,10 @@
         <v>294.7813861508287</v>
       </c>
       <c r="P34" t="n">
-        <v>228.7927916082952</v>
+        <v>228.7927916082953</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.79713918901876</v>
+        <v>74.79713918901879</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>346.8292814052486</v>
       </c>
       <c r="K35" t="n">
-        <v>361.1593805256545</v>
+        <v>317.6262227740115</v>
       </c>
       <c r="L35" t="n">
         <v>431.3179227102352</v>
@@ -37320,10 +37320,10 @@
         <v>524.857335992315</v>
       </c>
       <c r="O35" t="n">
-        <v>862.938119582475</v>
+        <v>584.6725691626351</v>
       </c>
       <c r="P35" t="n">
-        <v>376.6440798833286</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q35" t="n">
         <v>446.4996689280663</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K36" t="n">
         <v>227.3820710411406</v>
@@ -37399,7 +37399,7 @@
         <v>456.902547916371</v>
       </c>
       <c r="O36" t="n">
-        <v>517.7319193953409</v>
+        <v>395.5323306108509</v>
       </c>
       <c r="P36" t="n">
         <v>297.9212163207602</v>
@@ -37408,7 +37408,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>90.79628638538888</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K37" t="n">
         <v>248.1275858814442</v>
       </c>
       <c r="L37" t="n">
-        <v>359.5956415340272</v>
+        <v>359.595641534027</v>
       </c>
       <c r="M37" t="n">
         <v>386.9140569696073</v>
@@ -37478,10 +37478,10 @@
         <v>384.3947808111093</v>
       </c>
       <c r="O37" t="n">
-        <v>342.6969327483257</v>
+        <v>342.6969327483256</v>
       </c>
       <c r="P37" t="n">
-        <v>276.7083382057922</v>
+        <v>276.7083382057921</v>
       </c>
       <c r="Q37" t="n">
         <v>122.7126857865157</v>
@@ -37545,25 +37545,25 @@
         <v>346.8292814052486</v>
       </c>
       <c r="K38" t="n">
-        <v>317.6262227740115</v>
+        <v>420.1608536169171</v>
       </c>
       <c r="L38" t="n">
         <v>431.3179227102352</v>
       </c>
       <c r="M38" t="n">
-        <v>961.4271593260755</v>
+        <v>511.913625833243</v>
       </c>
       <c r="N38" t="n">
-        <v>711.9921321737755</v>
+        <v>524.857335992315</v>
       </c>
       <c r="O38" t="n">
         <v>482.1379383197296</v>
       </c>
       <c r="P38" t="n">
-        <v>376.6440798833286</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q38" t="n">
-        <v>234.1846782681617</v>
+        <v>446.4996689280663</v>
       </c>
       <c r="R38" t="n">
         <v>115.6679226101883</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K39" t="n">
         <v>227.3820710411406</v>
@@ -37642,10 +37642,10 @@
         <v>297.9212163207602</v>
       </c>
       <c r="Q39" t="n">
-        <v>270.9286014407641</v>
+        <v>148.7290126562742</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>90.7962863853889</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K40" t="n">
         <v>248.1275858814442</v>
       </c>
       <c r="L40" t="n">
-        <v>359.5956415340272</v>
+        <v>359.5956415340271</v>
       </c>
       <c r="M40" t="n">
         <v>386.9140569696073</v>
@@ -37715,13 +37715,13 @@
         <v>384.3947808111093</v>
       </c>
       <c r="O40" t="n">
-        <v>342.6969327483257</v>
+        <v>342.6969327483256</v>
       </c>
       <c r="P40" t="n">
-        <v>276.7083382057922</v>
+        <v>276.7083382057921</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.712685786515</v>
+        <v>122.7126857865157</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052486</v>
       </c>
       <c r="K41" t="n">
-        <v>317.6262227740115</v>
+        <v>504.7610189554721</v>
       </c>
       <c r="L41" t="n">
         <v>431.3179227102352</v>
@@ -37791,7 +37791,7 @@
         <v>961.4271593260755</v>
       </c>
       <c r="N41" t="n">
-        <v>946.805167218832</v>
+        <v>524.857335992315</v>
       </c>
       <c r="O41" t="n">
         <v>482.1379383197296</v>
@@ -37803,7 +37803,7 @@
         <v>234.1846782681617</v>
       </c>
       <c r="R41" t="n">
-        <v>49.95150273720589</v>
+        <v>115.6679226101883</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>209.0480209831269</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K42" t="n">
         <v>227.3820710411406</v>
@@ -37882,7 +37882,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>90.7962863853889</v>
+        <v>90.79628638538888</v>
       </c>
       <c r="K43" t="n">
         <v>248.1275858814442</v>
@@ -38019,10 +38019,10 @@
         <v>346.8292814052486</v>
       </c>
       <c r="K44" t="n">
-        <v>317.6262227740115</v>
+        <v>420.1608536169171</v>
       </c>
       <c r="L44" t="n">
-        <v>533.8525535531408</v>
+        <v>431.3179227102352</v>
       </c>
       <c r="M44" t="n">
         <v>511.913625833243</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.84843219863677</v>
+        <v>168.7787696106208</v>
       </c>
       <c r="K45" t="n">
-        <v>349.5816598256307</v>
+        <v>227.3820710411406</v>
       </c>
       <c r="L45" t="n">
         <v>352.5337008165163</v>
@@ -38119,7 +38119,7 @@
         <v>148.7290126562742</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>40.26925137250596</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90.7962863853889</v>
+        <v>90.79628638538888</v>
       </c>
       <c r="K46" t="n">
         <v>248.1275858814442</v>
